--- a/Teaching/Chemistry/Exams/Exam #2/Exam #2 Results Analysis.xlsx
+++ b/Teaching/Chemistry/Exams/Exam #2/Exam #2 Results Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mavigozler GitHub\mavigozler.github.io\Teaching\Chemistry\Exams\Exam #2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540B2963-66C7-4494-A556-CDE5F3852412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914AC014-04EA-45AB-9D5B-B18F1360C045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="2970" windowWidth="15540" windowHeight="15705" activeTab="2" xr2:uid="{CA88EED3-87E7-43C8-9C68-9675A576A903}"/>
+    <workbookView xWindow="3045" yWindow="1230" windowWidth="32550" windowHeight="19275" xr2:uid="{CA88EED3-87E7-43C8-9C68-9675A576A903}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="283">
   <si>
     <t>Version A Question</t>
   </si>
@@ -1048,13 +1048,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71B0351-61FE-4890-886A-81BED1274858}">
   <dimension ref="A1:AY70"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1367,13 +1367,13 @@
       <c r="O2" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="27" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="8" t="s">
@@ -1395,7 +1395,7 @@
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
-      <c r="P3" s="29"/>
+      <c r="P3" s="27"/>
       <c r="Q3" s="6" t="s">
         <v>106</v>
       </c>
@@ -10481,21 +10481,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A8:H8">
@@ -11103,10 +11103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57EA838-4BF5-4634-A74D-F49100E8E6C6}">
   <dimension ref="A2:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3510" topLeftCell="M1" activePane="topRight"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="V10" sqref="V10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15550,10 +15548,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F66C2B6-E81E-4014-BBAB-A216F17AE17F}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15561,10 +15559,14 @@
     <col min="1" max="1" width="10.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="64.140625" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>271</v>
       </c>
@@ -15573,7 +15575,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>146</v>
       </c>
@@ -15589,8 +15591,20 @@
       <c r="E2" s="10" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>694264</v>
       </c>
@@ -15606,8 +15620,20 @@
       <c r="E3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="13">
+        <v>345856</v>
+      </c>
+      <c r="H3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>873290</v>
       </c>
@@ -15623,8 +15649,20 @@
       <c r="E4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="13">
+        <v>490011</v>
+      </c>
+      <c r="H4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1016534</v>
       </c>
@@ -15640,8 +15678,20 @@
       <c r="E5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="13">
+        <v>517817</v>
+      </c>
+      <c r="H5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I5" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>1070102</v>
       </c>
@@ -15657,8 +15707,20 @@
       <c r="E6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" s="13">
+        <v>523330</v>
+      </c>
+      <c r="H6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>759215</v>
       </c>
@@ -15674,8 +15736,20 @@
       <c r="E7" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" s="13">
+        <v>547169</v>
+      </c>
+      <c r="H7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>576373</v>
       </c>
@@ -15691,8 +15765,20 @@
       <c r="E8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" s="13">
+        <v>574404</v>
+      </c>
+      <c r="H8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>994114</v>
       </c>
@@ -15708,8 +15794,20 @@
       <c r="E9" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" s="13">
+        <v>576373</v>
+      </c>
+      <c r="H9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>1024952</v>
       </c>
@@ -15725,8 +15823,20 @@
       <c r="E10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" s="13">
+        <v>684403</v>
+      </c>
+      <c r="H10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>888543</v>
       </c>
@@ -15742,8 +15852,20 @@
       <c r="E11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" s="13">
+        <v>694264</v>
+      </c>
+      <c r="H11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>737921</v>
       </c>
@@ -15759,8 +15881,20 @@
       <c r="E12" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12" s="13">
+        <v>737921</v>
+      </c>
+      <c r="H12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>1039936</v>
       </c>
@@ -15776,8 +15910,20 @@
       <c r="E13" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" s="13">
+        <v>754151</v>
+      </c>
+      <c r="H13" t="s">
+        <v>264</v>
+      </c>
+      <c r="I13" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>790131</v>
       </c>
@@ -15793,8 +15939,20 @@
       <c r="E14" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" s="13">
+        <v>759215</v>
+      </c>
+      <c r="H14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>778750</v>
       </c>
@@ -15810,8 +15968,20 @@
       <c r="E15" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" s="13">
+        <v>775232</v>
+      </c>
+      <c r="H15" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>490011</v>
       </c>
@@ -15827,8 +15997,20 @@
       <c r="E16" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" s="13">
+        <v>778750</v>
+      </c>
+      <c r="H16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>1063699</v>
       </c>
@@ -15842,8 +16024,20 @@
       <c r="E17" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" s="13">
+        <v>790131</v>
+      </c>
+      <c r="H17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>910945</v>
       </c>
@@ -15859,8 +16053,20 @@
       <c r="E18" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" s="13">
+        <v>792916</v>
+      </c>
+      <c r="H18" t="s">
+        <v>226</v>
+      </c>
+      <c r="I18" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>928878</v>
       </c>
@@ -15876,8 +16082,20 @@
       <c r="E19" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" s="13">
+        <v>808147</v>
+      </c>
+      <c r="H19" t="s">
+        <v>208</v>
+      </c>
+      <c r="I19" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>871988</v>
       </c>
@@ -15893,8 +16111,20 @@
       <c r="E20" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" s="13">
+        <v>833771</v>
+      </c>
+      <c r="H20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I20" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>982244</v>
       </c>
@@ -15910,8 +16140,20 @@
       <c r="E21" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21" s="13">
+        <v>871988</v>
+      </c>
+      <c r="H21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>1038679</v>
       </c>
@@ -15927,8 +16169,20 @@
       <c r="E22" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22" s="13">
+        <v>873290</v>
+      </c>
+      <c r="H22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>958268</v>
       </c>
@@ -15944,8 +16198,20 @@
       <c r="E23" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23" s="13">
+        <v>888543</v>
+      </c>
+      <c r="H23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>1036964</v>
       </c>
@@ -15961,8 +16227,20 @@
       <c r="E24" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24" s="13">
+        <v>891883</v>
+      </c>
+      <c r="H24" t="s">
+        <v>250</v>
+      </c>
+      <c r="I24" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>1043694</v>
       </c>
@@ -15978,8 +16256,20 @@
       <c r="E25" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G25" s="13">
+        <v>895473</v>
+      </c>
+      <c r="H25" t="s">
+        <v>230</v>
+      </c>
+      <c r="I25" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>997908</v>
       </c>
@@ -15995,8 +16285,20 @@
       <c r="E26" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G26" s="13">
+        <v>896290</v>
+      </c>
+      <c r="H26" t="s">
+        <v>254</v>
+      </c>
+      <c r="I26" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>1028207</v>
       </c>
@@ -16012,8 +16314,20 @@
       <c r="E27" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G27" s="13">
+        <v>910945</v>
+      </c>
+      <c r="H27" t="s">
+        <v>184</v>
+      </c>
+      <c r="I27" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>977963</v>
       </c>
@@ -16029,8 +16343,20 @@
       <c r="E28" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28" s="13">
+        <v>924739</v>
+      </c>
+      <c r="H28" t="s">
+        <v>248</v>
+      </c>
+      <c r="I28" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>345856</v>
       </c>
@@ -16046,8 +16372,20 @@
       <c r="E29" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29" s="13">
+        <v>928878</v>
+      </c>
+      <c r="H29" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>808147</v>
       </c>
@@ -16063,8 +16401,20 @@
       <c r="E30" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G30" s="13">
+        <v>934216</v>
+      </c>
+      <c r="H30" t="s">
+        <v>260</v>
+      </c>
+      <c r="I30" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>1023372</v>
       </c>
@@ -16080,8 +16430,20 @@
       <c r="E31" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31" s="13">
+        <v>934915</v>
+      </c>
+      <c r="H31" t="s">
+        <v>236</v>
+      </c>
+      <c r="I31" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>684403</v>
       </c>
@@ -16097,8 +16459,20 @@
       <c r="E32" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G32" s="13">
+        <v>958268</v>
+      </c>
+      <c r="H32" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>986455</v>
       </c>
@@ -16114,8 +16488,20 @@
       <c r="E33" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G33" s="13">
+        <v>964444</v>
+      </c>
+      <c r="H33" t="s">
+        <v>240</v>
+      </c>
+      <c r="I33" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>1047765</v>
       </c>
@@ -16131,8 +16517,20 @@
       <c r="E34" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G34" s="13">
+        <v>977589</v>
+      </c>
+      <c r="H34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>1014825</v>
       </c>
@@ -16148,8 +16546,20 @@
       <c r="E35" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G35" s="13">
+        <v>977963</v>
+      </c>
+      <c r="H35" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>977589</v>
       </c>
@@ -16165,8 +16575,20 @@
       <c r="E36" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G36" s="13">
+        <v>982244</v>
+      </c>
+      <c r="H36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I36" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>1012960</v>
       </c>
@@ -16182,8 +16604,20 @@
       <c r="E37" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G37" s="13">
+        <v>986455</v>
+      </c>
+      <c r="H37" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>1039827</v>
       </c>
@@ -16199,8 +16633,20 @@
       <c r="E38" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G38" s="13">
+        <v>994114</v>
+      </c>
+      <c r="H38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>792916</v>
       </c>
@@ -16216,8 +16662,20 @@
       <c r="E39" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G39" s="13">
+        <v>997376</v>
+      </c>
+      <c r="H39" t="s">
+        <v>262</v>
+      </c>
+      <c r="I39" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>1035199</v>
       </c>
@@ -16233,8 +16691,20 @@
       <c r="E40" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G40" s="13">
+        <v>997908</v>
+      </c>
+      <c r="H40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>895473</v>
       </c>
@@ -16250,8 +16720,20 @@
       <c r="E41" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G41" s="13">
+        <v>1012960</v>
+      </c>
+      <c r="H41" t="s">
+        <v>222</v>
+      </c>
+      <c r="I41" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>833771</v>
       </c>
@@ -16267,8 +16749,20 @@
       <c r="E42" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G42" s="13">
+        <v>1014825</v>
+      </c>
+      <c r="H42" t="s">
+        <v>218</v>
+      </c>
+      <c r="I42" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>523330</v>
       </c>
@@ -16284,8 +16778,20 @@
       <c r="E43" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G43" s="13">
+        <v>1016534</v>
+      </c>
+      <c r="H43" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>934915</v>
       </c>
@@ -16301,8 +16807,20 @@
       <c r="E44" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G44" s="13">
+        <v>1022282</v>
+      </c>
+      <c r="H44" t="s">
+        <v>246</v>
+      </c>
+      <c r="I44" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>574404</v>
       </c>
@@ -16318,8 +16836,20 @@
       <c r="E45" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G45" s="13">
+        <v>1023372</v>
+      </c>
+      <c r="H45" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>964444</v>
       </c>
@@ -16335,8 +16865,20 @@
       <c r="E46" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G46" s="13">
+        <v>1024952</v>
+      </c>
+      <c r="H46" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>547169</v>
       </c>
@@ -16352,8 +16894,20 @@
       <c r="E47" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G47" s="13">
+        <v>1028207</v>
+      </c>
+      <c r="H47" t="s">
+        <v>202</v>
+      </c>
+      <c r="I47" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>1065569</v>
       </c>
@@ -16369,8 +16923,20 @@
       <c r="E48" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G48" s="13">
+        <v>1035199</v>
+      </c>
+      <c r="H48" t="s">
+        <v>228</v>
+      </c>
+      <c r="I48" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>1022282</v>
       </c>
@@ -16386,8 +16952,20 @@
       <c r="E49" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G49" s="13">
+        <v>1036964</v>
+      </c>
+      <c r="H49" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>924739</v>
       </c>
@@ -16403,8 +16981,20 @@
       <c r="E50" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G50" s="13">
+        <v>1038679</v>
+      </c>
+      <c r="H50" t="s">
+        <v>192</v>
+      </c>
+      <c r="I50" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>891883</v>
       </c>
@@ -16420,8 +17010,20 @@
       <c r="E51" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G51" s="13">
+        <v>1039827</v>
+      </c>
+      <c r="H51" t="s">
+        <v>224</v>
+      </c>
+      <c r="I51" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>1068669</v>
       </c>
@@ -16437,8 +17039,20 @@
       <c r="E52" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G52" s="13">
+        <v>1039936</v>
+      </c>
+      <c r="H52" t="s">
+        <v>174</v>
+      </c>
+      <c r="I52" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <v>896290</v>
       </c>
@@ -16454,8 +17068,20 @@
       <c r="E53" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G53" s="13">
+        <v>1043694</v>
+      </c>
+      <c r="H53" t="s">
+        <v>198</v>
+      </c>
+      <c r="I53" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J53" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
         <v>517817</v>
       </c>
@@ -16471,8 +17097,20 @@
       <c r="E54" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G54" s="13">
+        <v>1047765</v>
+      </c>
+      <c r="H54" t="s">
+        <v>216</v>
+      </c>
+      <c r="I54" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
         <v>775232</v>
       </c>
@@ -16488,8 +17126,20 @@
       <c r="E55" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G55" s="13">
+        <v>1063699</v>
+      </c>
+      <c r="H55" t="s">
+        <v>182</v>
+      </c>
+      <c r="I55" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <v>934216</v>
       </c>
@@ -16505,8 +17155,20 @@
       <c r="E56" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G56" s="13">
+        <v>1065569</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
         <v>997376</v>
       </c>
@@ -16522,8 +17184,20 @@
       <c r="E57" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G57" s="13">
+        <v>1068669</v>
+      </c>
+      <c r="H57" t="s">
+        <v>252</v>
+      </c>
+      <c r="I57" s="6">
+        <v>43957</v>
+      </c>
+      <c r="J57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
         <v>754151</v>
       </c>
@@ -16539,11 +17213,26 @@
       <c r="E58" t="s">
         <v>265</v>
       </c>
+      <c r="G58" s="13">
+        <v>1070102</v>
+      </c>
+      <c r="H58" t="s">
+        <v>160</v>
+      </c>
+      <c r="I58" s="6">
+        <v>43958</v>
+      </c>
+      <c r="J58" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:E58">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula xml:space="preserve"> $I3 &lt;= -2</formula>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:J58">
+    <sortCondition ref="G3:G58"/>
+  </sortState>
+  <conditionalFormatting sqref="A3:E58 G3:J58">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula xml:space="preserve"> #REF! &lt;= -2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Teaching/Chemistry/Exams/Exam #2/Exam #2 Results Analysis.xlsx
+++ b/Teaching/Chemistry/Exams/Exam #2/Exam #2 Results Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mavigozler GitHub\mavigozler.github.io\Teaching\Chemistry\Exams\Exam #2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914AC014-04EA-45AB-9D5B-B18F1360C045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B031BD-7517-446D-8C29-02D95BEB80F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="1230" windowWidth="32550" windowHeight="19275" xr2:uid="{CA88EED3-87E7-43C8-9C68-9675A576A903}"/>
+    <workbookView xWindow="105" yWindow="555" windowWidth="38700" windowHeight="18300" xr2:uid="{CA88EED3-87E7-43C8-9C68-9675A576A903}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="282">
   <si>
     <t>Version A Question</t>
   </si>
@@ -503,9 +503,6 @@
   </si>
   <si>
     <t>Student</t>
-  </si>
-  <si>
-    <t>ID2</t>
   </si>
   <si>
     <t>Section</t>
@@ -990,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1006,9 +1003,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1048,13 +1042,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1297,7 +1291,7 @@
   <dimension ref="A1:AY70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:P3"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1318,84 +1312,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="M1" s="28"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
+        <v>148</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="28"/>
       <c r="Q3" s="6" t="s">
         <v>106</v>
       </c>
@@ -1760,8 +1754,8 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>271</v>
+      <c r="A7" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="B7">
         <f>COUNT(D8:D59)</f>
@@ -1822,16 +1816,16 @@
         <v>Khan, Hamza</v>
       </c>
       <c r="F8">
-        <f>_xlfn.XLOOKUP(D8,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D8,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H8">
         <v>43958</v>
       </c>
-      <c r="J8" s="16" cm="1">
+      <c r="J8" s="15" cm="1">
         <f t="array" ref="J8">SUMPRODUCT(--(Q8:AO8=IF(B8="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>22</v>
       </c>
@@ -1851,11 +1845,11 @@
         <f>L8*3+M8</f>
         <v>71</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <f>N8*100/(24*3+10)</f>
         <v>86.58536585365853</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="21">
         <f>(O8-$O$62)/$O$63</f>
         <v>1.5617190868769084</v>
       </c>
@@ -1984,16 +1978,16 @@
         <v>Garza, Liliana</v>
       </c>
       <c r="F9">
-        <f>_xlfn.XLOOKUP(D9,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D9,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H9">
         <v>43958</v>
       </c>
-      <c r="J9" s="16" cm="1">
+      <c r="J9" s="15" cm="1">
         <f t="array" ref="J9">SUMPRODUCT(--(Q9:AO9=IF(B9="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>11</v>
       </c>
@@ -2013,11 +2007,11 @@
         <f t="shared" ref="N9:N59" si="2">L9*3+M9</f>
         <v>37</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="20">
         <f t="shared" ref="O9:O59" si="3">N9*100/(24*3+10)</f>
         <v>45.121951219512198</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="21">
         <f t="shared" ref="P9:P58" si="4">(O9-$O$62)/$O$63</f>
         <v>-0.76441347049324526</v>
       </c>
@@ -2146,16 +2140,16 @@
         <v>Parada, Jennifer</v>
       </c>
       <c r="F10">
-        <f>_xlfn.XLOOKUP(D10,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D10,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H10">
         <v>43958</v>
       </c>
-      <c r="J10" s="16" cm="1">
+      <c r="J10" s="15" cm="1">
         <f t="array" ref="J10">SUMPRODUCT(--(Q10:AO10=IF(B10="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>15</v>
       </c>
@@ -2175,11 +2169,11 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="20">
         <f t="shared" si="3"/>
         <v>59.756097560975611</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="21">
         <f t="shared" si="4"/>
         <v>5.6574490931514974E-2</v>
       </c>
@@ -2291,9 +2285,9 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>142</v>
       </c>
       <c r="C11" s="7">
@@ -2307,16 +2301,16 @@
         <v>Castro, Socorro</v>
       </c>
       <c r="F11">
-        <f>_xlfn.XLOOKUP(D11,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D11,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H11">
         <v>43958</v>
       </c>
-      <c r="J11" s="16" cm="1">
+      <c r="J11" s="15" cm="1">
         <f t="array" ref="J11">SUMPRODUCT(--(Q11:AO11=IF(B11="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>12</v>
       </c>
@@ -2336,11 +2330,11 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="20">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="21">
         <f t="shared" si="4"/>
         <v>-0.49075081668499199</v>
       </c>
@@ -2469,16 +2463,16 @@
         <v>Zavala, Nia</v>
       </c>
       <c r="F12">
-        <f>_xlfn.XLOOKUP(D12,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D12,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H12">
         <v>43958</v>
       </c>
-      <c r="J12" s="16" cm="1">
+      <c r="J12" s="15" cm="1">
         <f t="array" ref="J12">SUMPRODUCT(--(Q12:AO12=IF(B12="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>17</v>
       </c>
@@ -2498,11 +2492,11 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="20">
         <f t="shared" si="3"/>
         <v>60.975609756097562</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="21">
         <f t="shared" si="4"/>
         <v>0.1249901543835783</v>
       </c>
@@ -2631,16 +2625,16 @@
         <v>Marquez, Rocelia</v>
       </c>
       <c r="F13">
-        <f>_xlfn.XLOOKUP(D13,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D13,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H13">
         <v>43957</v>
       </c>
-      <c r="J13" s="16" cm="1">
+      <c r="J13" s="15" cm="1">
         <f t="array" ref="J13">SUMPRODUCT(--(Q13:AO13=IF(B13="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>15</v>
       </c>
@@ -2660,11 +2654,11 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="20">
         <f t="shared" si="3"/>
         <v>57.31707317073171</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="21">
         <f t="shared" si="4"/>
         <v>-8.025683597261167E-2</v>
       </c>
@@ -2791,16 +2785,16 @@
         <v>Xiong, Wendy</v>
       </c>
       <c r="F14">
-        <f>_xlfn.XLOOKUP(D14,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D14,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H14">
         <v>43958</v>
       </c>
-      <c r="J14" s="16" cm="1">
+      <c r="J14" s="15" cm="1">
         <f t="array" ref="J14">SUMPRODUCT(--(Q14:AO14=IF(B14="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>19</v>
       </c>
@@ -2820,11 +2814,11 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="20">
         <f t="shared" si="3"/>
         <v>74.390243902439025</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="21">
         <f t="shared" si="4"/>
         <v>0.87756245235627517</v>
       </c>
@@ -2953,16 +2947,16 @@
         <v>Martinez, Vanessa</v>
       </c>
       <c r="F15">
-        <f>_xlfn.XLOOKUP(D15,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D15,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H15">
         <v>43958</v>
       </c>
-      <c r="J15" s="16" cm="1">
+      <c r="J15" s="15" cm="1">
         <f t="array" ref="J15">SUMPRODUCT(--(Q15:AO15=IF(B15="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>17</v>
       </c>
@@ -2982,11 +2976,11 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="20">
         <f t="shared" si="3"/>
         <v>63.414634146341463</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15" s="21">
         <f t="shared" si="4"/>
         <v>0.26182148128770494</v>
       </c>
@@ -3115,16 +3109,16 @@
         <v>Moua, Haley</v>
       </c>
       <c r="F16">
-        <f>_xlfn.XLOOKUP(D16,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D16,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H16">
         <v>43957</v>
       </c>
-      <c r="J16" s="16" cm="1">
+      <c r="J16" s="15" cm="1">
         <f t="array" ref="J16">SUMPRODUCT(--(Q16:AO16=IF(B16="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>13</v>
       </c>
@@ -3144,11 +3138,11 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="20">
         <f t="shared" si="3"/>
         <v>54.878048780487802</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="21">
         <f t="shared" si="4"/>
         <v>-0.21708816287673871</v>
       </c>
@@ -3277,16 +3271,16 @@
         <v>Pedroza, Serena</v>
       </c>
       <c r="F17">
-        <f>_xlfn.XLOOKUP(D17,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D17,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H17">
         <v>43957</v>
       </c>
-      <c r="J17" s="16" cm="1">
+      <c r="J17" s="15" cm="1">
         <f t="array" ref="J17">SUMPRODUCT(--(Q17:AO17=IF(B17="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>17</v>
       </c>
@@ -3306,11 +3300,11 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="20">
         <f t="shared" si="3"/>
         <v>68.292682926829272</v>
       </c>
-      <c r="P17" s="22">
+      <c r="P17" s="21">
         <f t="shared" si="4"/>
         <v>0.5354841350959586</v>
       </c>
@@ -3439,16 +3433,16 @@
         <v>Garcia, Jovanna</v>
       </c>
       <c r="F18">
-        <f>_xlfn.XLOOKUP(D18,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D18,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H18">
         <v>43958</v>
       </c>
-      <c r="J18" s="16" cm="1">
+      <c r="J18" s="15" cm="1">
         <f t="array" ref="J18">SUMPRODUCT(--(Q18:AO18=IF(B18="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>16</v>
       </c>
@@ -3468,11 +3462,11 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="20">
         <f t="shared" si="3"/>
         <v>63.414634146341463</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="21">
         <f t="shared" si="4"/>
         <v>0.26182148128770494</v>
       </c>
@@ -3599,16 +3593,16 @@
         <v>Landeros, Hidai</v>
       </c>
       <c r="F19">
-        <f>_xlfn.XLOOKUP(D19,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D19,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H19">
         <v>43958</v>
       </c>
-      <c r="J19" s="16" cm="1">
+      <c r="J19" s="15" cm="1">
         <f t="array" ref="J19">SUMPRODUCT(--(Q19:AO19=IF(B19="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>9</v>
       </c>
@@ -3628,11 +3622,11 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="20">
         <f t="shared" si="3"/>
         <v>34.146341463414636</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="21">
         <f t="shared" si="4"/>
         <v>-1.3801544415618157</v>
       </c>
@@ -3761,16 +3755,16 @@
         <v>San Roman, Jesus</v>
       </c>
       <c r="F20">
-        <f>_xlfn.XLOOKUP(D20,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D20,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H20">
         <v>43958</v>
       </c>
-      <c r="J20" s="16" cm="1">
+      <c r="J20" s="15" cm="1">
         <f t="array" ref="J20">SUMPRODUCT(--(Q20:AO20=IF(B20="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>17</v>
       </c>
@@ -3790,11 +3784,11 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="20">
         <f t="shared" si="3"/>
         <v>68.292682926829272</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="21">
         <f t="shared" si="4"/>
         <v>0.5354841350959586</v>
       </c>
@@ -3923,16 +3917,16 @@
         <v>Rodriguez, Ericke</v>
       </c>
       <c r="F21">
-        <f>_xlfn.XLOOKUP(D21,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D21,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H21">
         <v>43958</v>
       </c>
-      <c r="J21" s="16" cm="1">
+      <c r="J21" s="15" cm="1">
         <f t="array" ref="J21">SUMPRODUCT(--(Q21:AO21=IF(B21="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>18</v>
       </c>
@@ -3952,11 +3946,11 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="20">
         <f t="shared" si="3"/>
         <v>69.512195121951223</v>
       </c>
-      <c r="P21" s="22">
+      <c r="P21" s="21">
         <f t="shared" si="4"/>
         <v>0.60389979854802189</v>
       </c>
@@ -4068,9 +4062,9 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>142</v>
       </c>
       <c r="C22" s="7">
@@ -4084,16 +4078,16 @@
         <v>Garcia-Hernandez, Allison</v>
       </c>
       <c r="F22">
-        <f>_xlfn.XLOOKUP(D22,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D22,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H22">
         <v>43958</v>
       </c>
-      <c r="J22" s="16" cm="1">
+      <c r="J22" s="15" cm="1">
         <f t="array" ref="J22">SUMPRODUCT(--(Q22:AO22=IF(B22="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>12</v>
       </c>
@@ -4113,11 +4107,11 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="20">
         <f t="shared" si="3"/>
         <v>53.658536585365852</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="21">
         <f t="shared" si="4"/>
         <v>-0.28550382632880206</v>
       </c>
@@ -4134,7 +4128,7 @@
         <v>143</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V22" s="6" t="s">
         <v>141</v>
@@ -4185,7 +4179,7 @@
         <v>143</v>
       </c>
       <c r="AL22" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM22" s="6" t="s">
         <v>141</v>
@@ -4229,9 +4223,9 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C23" s="7">
@@ -4245,16 +4239,16 @@
         <v>Corea, Kristie</v>
       </c>
       <c r="F23">
-        <f>_xlfn.XLOOKUP(D23,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D23,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H23">
         <v>43957</v>
       </c>
-      <c r="J23" s="16" cm="1">
+      <c r="J23" s="15" cm="1">
         <f t="array" ref="J23">SUMPRODUCT(--(Q23:AO23=IF(B23="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>12</v>
       </c>
@@ -4274,11 +4268,11 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="20">
         <f t="shared" si="3"/>
         <v>46.341463414634148</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="21">
         <f t="shared" si="4"/>
         <v>-0.69599780704118197</v>
       </c>
@@ -4407,16 +4401,16 @@
         <v>Fang, Pa</v>
       </c>
       <c r="F24">
-        <f>_xlfn.XLOOKUP(D24,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D24,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H24">
         <v>43957</v>
       </c>
-      <c r="J24" s="16" cm="1">
+      <c r="J24" s="15" cm="1">
         <f t="array" ref="J24">SUMPRODUCT(--(Q24:AO24=IF(B24="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>8</v>
       </c>
@@ -4436,11 +4430,11 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="20">
         <f t="shared" si="3"/>
         <v>35.365853658536587</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="21">
         <f t="shared" si="4"/>
         <v>-1.3117387781097523</v>
       </c>
@@ -4569,16 +4563,16 @@
         <v>Hernan, Jazmine</v>
       </c>
       <c r="F25">
-        <f>_xlfn.XLOOKUP(D25,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D25,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H25">
         <v>43957</v>
       </c>
-      <c r="J25" s="16" cm="1">
+      <c r="J25" s="15" cm="1">
         <f t="array" ref="J25">SUMPRODUCT(--(Q25:AO25=IF(B25="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>13</v>
       </c>
@@ -4598,11 +4592,11 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="20">
         <f t="shared" si="3"/>
         <v>52.439024390243901</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="21">
         <f t="shared" si="4"/>
         <v>-0.35391948978086535</v>
       </c>
@@ -4731,16 +4725,16 @@
         <v>Ceballos, Ariel</v>
       </c>
       <c r="F26">
-        <f>_xlfn.XLOOKUP(D26,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D26,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H26">
         <v>43957</v>
       </c>
-      <c r="J26" s="16" cm="1">
+      <c r="J26" s="15" cm="1">
         <f t="array" ref="J26">SUMPRODUCT(--(Q26:AO26=IF(B26="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>18</v>
       </c>
@@ -4760,11 +4754,11 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="20">
         <f t="shared" si="3"/>
         <v>75.609756097560975</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="21">
         <f t="shared" si="4"/>
         <v>0.94597811580833857</v>
       </c>
@@ -4893,16 +4887,16 @@
         <v>Bryant, Tajanique</v>
       </c>
       <c r="F27">
-        <f>_xlfn.XLOOKUP(D27,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D27,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H27">
         <v>43958</v>
       </c>
-      <c r="J27" s="16" cm="1">
+      <c r="J27" s="15" cm="1">
         <f t="array" ref="J27">SUMPRODUCT(--(Q27:AO27=IF(B27="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>15</v>
       </c>
@@ -4922,11 +4916,11 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="20">
         <f t="shared" si="3"/>
         <v>59.756097560975611</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P27" s="21">
         <f t="shared" si="4"/>
         <v>5.6574490931514974E-2</v>
       </c>
@@ -4943,7 +4937,7 @@
         <v>143</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V27" s="6" t="s">
         <v>143</v>
@@ -5055,16 +5049,16 @@
         <v>Snell, Tricia</v>
       </c>
       <c r="F28">
-        <f>_xlfn.XLOOKUP(D28,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D28,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H28">
         <v>43957</v>
       </c>
-      <c r="J28" s="16" cm="1">
+      <c r="J28" s="15" cm="1">
         <f t="array" ref="J28">SUMPRODUCT(--(Q28:AO28=IF(B28="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>25</v>
       </c>
@@ -5084,11 +5078,11 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="20">
         <f t="shared" si="3"/>
         <v>98.780487804878049</v>
       </c>
-      <c r="P28" s="22">
+      <c r="P28" s="21">
         <f t="shared" si="4"/>
         <v>2.2458757213975424</v>
       </c>
@@ -5217,16 +5211,16 @@
         <v>Garcia, Sabrina</v>
       </c>
       <c r="F29">
-        <f>_xlfn.XLOOKUP(D29,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D29,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H29">
         <v>43957</v>
       </c>
-      <c r="J29" s="16" cm="1">
+      <c r="J29" s="15" cm="1">
         <f t="array" ref="J29">SUMPRODUCT(--(Q29:AO29=IF(B29="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>7</v>
       </c>
@@ -5246,11 +5240,11 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="20">
         <f t="shared" si="3"/>
         <v>31.707317073170731</v>
       </c>
-      <c r="P29" s="22">
+      <c r="P29" s="21">
         <f t="shared" si="4"/>
         <v>-1.5169857684659425</v>
       </c>
@@ -5379,16 +5373,16 @@
         <v>Rodriguez, Madison</v>
       </c>
       <c r="F30">
-        <f>_xlfn.XLOOKUP(D30,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D30,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H30">
         <v>43958</v>
       </c>
-      <c r="J30" s="16" cm="1">
+      <c r="J30" s="15" cm="1">
         <f t="array" ref="J30">SUMPRODUCT(--(Q30:AO30=IF(B30="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>18</v>
       </c>
@@ -5408,11 +5402,11 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="20">
         <f t="shared" si="3"/>
         <v>70.731707317073173</v>
       </c>
-      <c r="P30" s="22">
+      <c r="P30" s="21">
         <f t="shared" si="4"/>
         <v>0.6723154620000853</v>
       </c>
@@ -5524,9 +5518,9 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C31" s="7">
@@ -5540,16 +5534,16 @@
         <v>Arellano Cruz, Ashley</v>
       </c>
       <c r="F31">
-        <f>_xlfn.XLOOKUP(D31,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D31,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H31">
         <v>43958</v>
       </c>
-      <c r="J31" s="16" cm="1">
+      <c r="J31" s="15" cm="1">
         <f t="array" ref="J31">SUMPRODUCT(--(Q31:AO31=IF(B31="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>8</v>
       </c>
@@ -5569,11 +5563,11 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="20">
         <f t="shared" si="3"/>
         <v>35.365853658536587</v>
       </c>
-      <c r="P31" s="22">
+      <c r="P31" s="21">
         <f t="shared" si="4"/>
         <v>-1.3117387781097523</v>
       </c>
@@ -5700,16 +5694,16 @@
         <v>Vargas, Lisa</v>
       </c>
       <c r="F32">
-        <f>_xlfn.XLOOKUP(D32,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D32,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H32">
         <v>43957</v>
       </c>
-      <c r="J32" s="16" cm="1">
+      <c r="J32" s="15" cm="1">
         <f t="array" ref="J32">SUMPRODUCT(--(Q32:AO32=IF(B32="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>8</v>
       </c>
@@ -5729,11 +5723,11 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="20">
         <f t="shared" si="3"/>
         <v>35.365853658536587</v>
       </c>
-      <c r="P32" s="22">
+      <c r="P32" s="21">
         <f t="shared" si="4"/>
         <v>-1.3117387781097523</v>
       </c>
@@ -5862,16 +5856,16 @@
         <v>Santos, Madison</v>
       </c>
       <c r="F33">
-        <f>_xlfn.XLOOKUP(D33,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D33,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H33">
         <v>43957</v>
       </c>
-      <c r="J33" s="16" cm="1">
+      <c r="J33" s="15" cm="1">
         <f t="array" ref="J33">SUMPRODUCT(--(Q33:AO33=IF(B33="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>14</v>
       </c>
@@ -5891,11 +5885,11 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="20">
         <f t="shared" si="3"/>
         <v>54.878048780487802</v>
       </c>
-      <c r="P33" s="22">
+      <c r="P33" s="21">
         <f t="shared" si="4"/>
         <v>-0.21708816287673871</v>
       </c>
@@ -6007,9 +6001,9 @@
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C34" s="7">
@@ -6023,16 +6017,16 @@
         <v>Pascale, Teah</v>
       </c>
       <c r="F34">
-        <f>_xlfn.XLOOKUP(D34,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D34,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H34">
         <v>43957</v>
       </c>
-      <c r="J34" s="16" cm="1">
+      <c r="J34" s="15" cm="1">
         <f t="array" ref="J34">SUMPRODUCT(--(Q34:AO34=IF(B34="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>13</v>
       </c>
@@ -6052,11 +6046,11 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="20">
         <f t="shared" si="3"/>
         <v>57.31707317073171</v>
       </c>
-      <c r="P34" s="22">
+      <c r="P34" s="21">
         <f t="shared" si="4"/>
         <v>-8.025683597261167E-2</v>
       </c>
@@ -6185,16 +6179,16 @@
         <v>Sarkisyan, Rita</v>
       </c>
       <c r="F35">
-        <f>_xlfn.XLOOKUP(D35,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D35,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H35">
         <v>43957</v>
       </c>
-      <c r="J35" s="16" cm="1">
+      <c r="J35" s="15" cm="1">
         <f t="array" ref="J35">SUMPRODUCT(--(Q35:AO35=IF(B35="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>4</v>
       </c>
@@ -6214,11 +6208,11 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="20">
         <f t="shared" si="3"/>
         <v>25.609756097560975</v>
       </c>
-      <c r="P35" s="22">
+      <c r="P35" s="21">
         <f t="shared" si="4"/>
         <v>-1.8590640857262593</v>
       </c>
@@ -6347,16 +6341,16 @@
         <v>Her, Kangbao</v>
       </c>
       <c r="F36">
-        <f>_xlfn.XLOOKUP(D36,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D36,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H36">
         <v>43958</v>
       </c>
-      <c r="J36" s="16" cm="1">
+      <c r="J36" s="15" cm="1">
         <f t="array" ref="J36">SUMPRODUCT(--(Q36:AO36=IF(B36="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>14</v>
       </c>
@@ -6376,11 +6370,11 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="20">
         <f t="shared" si="3"/>
         <v>59.756097560975611</v>
       </c>
-      <c r="P36" s="22">
+      <c r="P36" s="21">
         <f t="shared" si="4"/>
         <v>5.6574490931514974E-2</v>
       </c>
@@ -6509,16 +6503,16 @@
         <v>Pyle, Matthew</v>
       </c>
       <c r="F37">
-        <f>_xlfn.XLOOKUP(D37,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D37,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H37">
         <v>43957</v>
       </c>
-      <c r="J37" s="16" cm="1">
+      <c r="J37" s="15" cm="1">
         <f t="array" ref="J37">SUMPRODUCT(--(Q37:AO37=IF(B37="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>16</v>
       </c>
@@ -6538,11 +6532,11 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="20">
         <f t="shared" si="3"/>
         <v>68.292682926829272</v>
       </c>
-      <c r="P37" s="22">
+      <c r="P37" s="21">
         <f t="shared" si="4"/>
         <v>0.5354841350959586</v>
       </c>
@@ -6671,16 +6665,16 @@
         <v>Negrete, Miguel</v>
       </c>
       <c r="F38">
-        <f>_xlfn.XLOOKUP(D38,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D38,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H38">
         <v>43958</v>
       </c>
-      <c r="J38" s="16" cm="1">
+      <c r="J38" s="15" cm="1">
         <f t="array" ref="J38">SUMPRODUCT(--(Q38:AO38=IF(B38="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>20</v>
       </c>
@@ -6700,11 +6694,11 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="20">
         <f t="shared" si="3"/>
         <v>76.829268292682926</v>
       </c>
-      <c r="P38" s="22">
+      <c r="P38" s="21">
         <f t="shared" si="4"/>
         <v>1.0143937792604019</v>
       </c>
@@ -6833,16 +6827,16 @@
         <v>Garcia, Andres</v>
       </c>
       <c r="F39">
-        <f>_xlfn.XLOOKUP(D39,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D39,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39">
         <v>43957</v>
       </c>
-      <c r="J39" s="16" cm="1">
+      <c r="J39" s="15" cm="1">
         <f t="array" ref="J39">SUMPRODUCT(--(Q39:AO39=IF(B39="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>17</v>
       </c>
@@ -6862,11 +6856,11 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O39" s="20">
         <f t="shared" si="3"/>
         <v>65.853658536585371</v>
       </c>
-      <c r="P39" s="22">
+      <c r="P39" s="21">
         <f t="shared" si="4"/>
         <v>0.39865280819183196</v>
       </c>
@@ -6995,16 +6989,16 @@
         <v>Hernandez, Arriel</v>
       </c>
       <c r="F40">
-        <f>_xlfn.XLOOKUP(D40,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D40,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H40">
         <v>43958</v>
       </c>
-      <c r="J40" s="16" cm="1">
+      <c r="J40" s="15" cm="1">
         <f t="array" ref="J40">SUMPRODUCT(--(Q40:AO40=IF(B40="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>15</v>
       </c>
@@ -7024,11 +7018,11 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="20">
         <f t="shared" si="3"/>
         <v>56.097560975609753</v>
       </c>
-      <c r="P40" s="22">
+      <c r="P40" s="21">
         <f t="shared" si="4"/>
         <v>-0.14867249942467539</v>
       </c>
@@ -7157,16 +7151,16 @@
         <v>Morgan, Steven</v>
       </c>
       <c r="F41">
-        <f>_xlfn.XLOOKUP(D41,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D41,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H41">
         <v>43958</v>
       </c>
-      <c r="J41" s="16" cm="1">
+      <c r="J41" s="15" cm="1">
         <f t="array" ref="J41">SUMPRODUCT(--(Q41:AO41=IF(B41="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>18</v>
       </c>
@@ -7186,11 +7180,11 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="O41" s="21">
+      <c r="O41" s="20">
         <f t="shared" si="3"/>
         <v>70.731707317073173</v>
       </c>
-      <c r="P41" s="22">
+      <c r="P41" s="21">
         <f t="shared" si="4"/>
         <v>0.6723154620000853</v>
       </c>
@@ -7319,16 +7313,16 @@
         <v>Munoz Cisneros, Evelyn</v>
       </c>
       <c r="F42">
-        <f>_xlfn.XLOOKUP(D42,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D42,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H42">
         <v>43957</v>
       </c>
-      <c r="J42" s="16" cm="1">
+      <c r="J42" s="15" cm="1">
         <f t="array" ref="J42">SUMPRODUCT(--(Q42:AO42=IF(B42="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>12</v>
       </c>
@@ -7348,11 +7342,11 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="O42" s="21">
+      <c r="O42" s="20">
         <f t="shared" si="3"/>
         <v>46.341463414634148</v>
       </c>
-      <c r="P42" s="22">
+      <c r="P42" s="21">
         <f t="shared" si="4"/>
         <v>-0.69599780704118197</v>
       </c>
@@ -7481,16 +7475,16 @@
         <v>Aquino, Hailey</v>
       </c>
       <c r="F43">
-        <f>_xlfn.XLOOKUP(D43,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D43,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H43">
         <v>43957</v>
       </c>
-      <c r="J43" s="16" cm="1">
+      <c r="J43" s="15" cm="1">
         <f t="array" ref="J43">SUMPRODUCT(--(Q43:AO43=IF(B43="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>24</v>
       </c>
@@ -7510,11 +7504,11 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O43" s="20">
         <f t="shared" si="3"/>
         <v>96.341463414634148</v>
       </c>
-      <c r="P43" s="22">
+      <c r="P43" s="21">
         <f t="shared" si="4"/>
         <v>2.1090443944934156</v>
       </c>
@@ -7643,16 +7637,16 @@
         <v>Gamez, Sergio</v>
       </c>
       <c r="F44">
-        <f>_xlfn.XLOOKUP(D44,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D44,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H44">
         <v>43957</v>
       </c>
-      <c r="J44" s="16" cm="1">
+      <c r="J44" s="15" cm="1">
         <f t="array" ref="J44">SUMPRODUCT(--(Q44:AO44=IF(B44="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>15</v>
       </c>
@@ -7672,11 +7666,11 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="20">
         <f t="shared" si="3"/>
         <v>60.975609756097562</v>
       </c>
-      <c r="P44" s="22">
+      <c r="P44" s="21">
         <f t="shared" si="4"/>
         <v>0.1249901543835783</v>
       </c>
@@ -7805,16 +7799,16 @@
         <v>Perales, April</v>
       </c>
       <c r="F45">
-        <f>_xlfn.XLOOKUP(D45,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D45,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H45">
         <v>43958</v>
       </c>
-      <c r="J45" s="16" cm="1">
+      <c r="J45" s="15" cm="1">
         <f t="array" ref="J45">SUMPRODUCT(--(Q45:AO45=IF(B45="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>11</v>
       </c>
@@ -7834,11 +7828,11 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="20">
         <f t="shared" si="3"/>
         <v>41.463414634146339</v>
       </c>
-      <c r="P45" s="22">
+      <c r="P45" s="21">
         <f t="shared" si="4"/>
         <v>-0.96966046084943569</v>
       </c>
@@ -7967,16 +7961,16 @@
         <v>Musso, Isabella</v>
       </c>
       <c r="F46">
-        <f>_xlfn.XLOOKUP(D46,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D46,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H46">
         <v>43958</v>
       </c>
-      <c r="J46" s="16" cm="1">
+      <c r="J46" s="15" cm="1">
         <f t="array" ref="J46">SUMPRODUCT(--(Q46:AO46=IF(B46="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>19</v>
       </c>
@@ -7996,11 +7990,11 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="20">
         <f t="shared" si="3"/>
         <v>75.609756097560975</v>
       </c>
-      <c r="P46" s="22">
+      <c r="P46" s="21">
         <f t="shared" si="4"/>
         <v>0.94597811580833857</v>
       </c>
@@ -8129,16 +8123,16 @@
         <v>Olea, Joscelyne</v>
       </c>
       <c r="F47">
-        <f>_xlfn.XLOOKUP(D47,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D47,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H47">
         <v>43957</v>
       </c>
-      <c r="J47" s="16" cm="1">
+      <c r="J47" s="15" cm="1">
         <f t="array" ref="J47">SUMPRODUCT(--(Q47:AO47=IF(B47="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>19</v>
       </c>
@@ -8158,11 +8152,11 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O47" s="20">
         <f t="shared" si="3"/>
         <v>74.390243902439025</v>
       </c>
-      <c r="P47" s="22">
+      <c r="P47" s="21">
         <f t="shared" si="4"/>
         <v>0.87756245235627517</v>
       </c>
@@ -8291,16 +8285,16 @@
         <v>Maravilla Martinez, Rogelio</v>
       </c>
       <c r="F48">
-        <f>_xlfn.XLOOKUP(D48,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D48,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H48">
         <v>43958</v>
       </c>
-      <c r="J48" s="16" cm="1">
+      <c r="J48" s="15" cm="1">
         <f t="array" ref="J48">SUMPRODUCT(--(Q48:AO48=IF(B48="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>18</v>
       </c>
@@ -8320,11 +8314,11 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="O48" s="21">
+      <c r="O48" s="20">
         <f t="shared" si="3"/>
         <v>69.512195121951223</v>
       </c>
-      <c r="P48" s="22">
+      <c r="P48" s="21">
         <f t="shared" si="4"/>
         <v>0.60389979854802189</v>
       </c>
@@ -8436,9 +8430,9 @@
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="7">
@@ -8452,16 +8446,16 @@
         <v>Tacadena, Elle</v>
       </c>
       <c r="F49">
-        <f>_xlfn.XLOOKUP(D49,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D49,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H49">
         <v>43957</v>
       </c>
-      <c r="J49" s="16" cm="1">
+      <c r="J49" s="15" cm="1">
         <f t="array" ref="J49">SUMPRODUCT(--(Q49:AO49=IF(B49="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>15</v>
       </c>
@@ -8481,11 +8475,11 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="O49" s="21">
+      <c r="O49" s="20">
         <f t="shared" si="3"/>
         <v>64.634146341463421</v>
       </c>
-      <c r="P49" s="22">
+      <c r="P49" s="21">
         <f t="shared" si="4"/>
         <v>0.33023714473976867</v>
       </c>
@@ -8597,9 +8591,9 @@
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>142</v>
       </c>
       <c r="C50" s="7">
@@ -8613,16 +8607,16 @@
         <v>Hernandez Salcedo, Belen</v>
       </c>
       <c r="F50">
-        <f>_xlfn.XLOOKUP(D50,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D50,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H50">
         <v>43958</v>
       </c>
-      <c r="J50" s="16" cm="1">
+      <c r="J50" s="15" cm="1">
         <f t="array" ref="J50">SUMPRODUCT(--(Q50:AO50=IF(B50="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>13</v>
       </c>
@@ -8642,11 +8636,11 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="O50" s="21">
+      <c r="O50" s="20">
         <f t="shared" si="3"/>
         <v>53.658536585365852</v>
       </c>
-      <c r="P50" s="22">
+      <c r="P50" s="21">
         <f t="shared" si="4"/>
         <v>-0.28550382632880206</v>
       </c>
@@ -8758,9 +8752,9 @@
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B51" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C51" s="7"/>
@@ -8772,16 +8766,16 @@
         <v>Lopez, Jovina</v>
       </c>
       <c r="F51">
-        <f>_xlfn.XLOOKUP(D51,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D51,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H51">
         <v>43957</v>
       </c>
-      <c r="J51" s="16" cm="1">
+      <c r="J51" s="15" cm="1">
         <f t="array" ref="J51">SUMPRODUCT(--(Q51:AO51=IF(B51="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>8</v>
       </c>
@@ -8801,11 +8795,11 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="O51" s="21">
+      <c r="O51" s="20">
         <f t="shared" si="3"/>
         <v>37.804878048780488</v>
       </c>
-      <c r="P51" s="22">
+      <c r="P51" s="21">
         <f t="shared" si="4"/>
         <v>-1.1749074512056257</v>
       </c>
@@ -8919,7 +8913,7 @@
       <c r="A52" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>142</v>
       </c>
       <c r="C52" s="7">
@@ -8933,16 +8927,16 @@
         <v>Jimenez Merino, Oscar</v>
       </c>
       <c r="F52">
-        <f>_xlfn.XLOOKUP(D52,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D52,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H52">
         <v>43958</v>
       </c>
-      <c r="J52" s="16" cm="1">
+      <c r="J52" s="15" cm="1">
         <f t="array" ref="J52">SUMPRODUCT(--(Q52:AO52=IF(B52="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>20</v>
       </c>
@@ -8962,11 +8956,11 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="O52" s="21">
+      <c r="O52" s="20">
         <f t="shared" si="3"/>
         <v>79.268292682926827</v>
       </c>
-      <c r="P52" s="22">
+      <c r="P52" s="21">
         <f t="shared" si="4"/>
         <v>1.1512251061645284</v>
       </c>
@@ -9080,7 +9074,7 @@
       <c r="A53" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C53" s="7">
@@ -9094,16 +9088,16 @@
         <v>Wright, Rebecca</v>
       </c>
       <c r="F53">
-        <f>_xlfn.XLOOKUP(D53,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D53,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H53">
         <v>43957</v>
       </c>
-      <c r="J53" s="16" cm="1">
+      <c r="J53" s="15" cm="1">
         <f t="array" ref="J53">SUMPRODUCT(--(Q53:AO53=IF(B53="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>11</v>
       </c>
@@ -9123,11 +9117,11 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="O53" s="21">
+      <c r="O53" s="20">
         <f t="shared" si="3"/>
         <v>43.902439024390247</v>
       </c>
-      <c r="P53" s="22">
+      <c r="P53" s="21">
         <f t="shared" si="4"/>
         <v>-0.83282913394530855</v>
       </c>
@@ -9239,9 +9233,9 @@
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C54" s="7">
@@ -9255,16 +9249,16 @@
         <v>Cuevas Romero, Ana</v>
       </c>
       <c r="F54">
-        <f>_xlfn.XLOOKUP(D54,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D54,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H54">
         <v>43957</v>
       </c>
-      <c r="J54" s="16" cm="1">
+      <c r="J54" s="15" cm="1">
         <f t="array" ref="J54">SUMPRODUCT(--(Q54:AO54=IF(B54="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>24</v>
       </c>
@@ -9284,11 +9278,11 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="O54" s="21">
+      <c r="O54" s="20">
         <f t="shared" si="3"/>
         <v>95.121951219512198</v>
       </c>
-      <c r="P54" s="22">
+      <c r="P54" s="21">
         <f t="shared" si="4"/>
         <v>2.0406287310413527</v>
       </c>
@@ -9402,7 +9396,7 @@
       <c r="A55" t="s">
         <v>141</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C55" s="7"/>
@@ -9414,16 +9408,16 @@
         <v>Andrade, Antonio</v>
       </c>
       <c r="F55">
-        <f>_xlfn.XLOOKUP(D55,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D55,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H55">
         <v>43957</v>
       </c>
-      <c r="J55" s="16" cm="1">
+      <c r="J55" s="15" cm="1">
         <f t="array" ref="J55">SUMPRODUCT(--(Q55:AO55=IF(B55="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>17</v>
       </c>
@@ -9443,11 +9437,11 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="O55" s="21">
+      <c r="O55" s="20">
         <f t="shared" si="3"/>
         <v>68.292682926829272</v>
       </c>
-      <c r="P55" s="22">
+      <c r="P55" s="21">
         <f t="shared" si="4"/>
         <v>0.5354841350959586</v>
       </c>
@@ -9559,9 +9553,9 @@
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="7">
@@ -9575,16 +9569,16 @@
         <v>Ketcheside, Sadee</v>
       </c>
       <c r="F56">
-        <f>_xlfn.XLOOKUP(D56,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D56,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H56">
         <v>43958</v>
       </c>
-      <c r="J56" s="16" cm="1">
+      <c r="J56" s="15" cm="1">
         <f t="array" ref="J56">SUMPRODUCT(--(Q56:AO56=IF(B56="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>9</v>
       </c>
@@ -9604,11 +9598,11 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="O56" s="21">
+      <c r="O56" s="20">
         <f t="shared" si="3"/>
         <v>37.804878048780488</v>
       </c>
-      <c r="P56" s="22">
+      <c r="P56" s="21">
         <f t="shared" si="4"/>
         <v>-1.1749074512056257</v>
       </c>
@@ -9722,7 +9716,7 @@
       <c r="A57" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C57" s="7">
@@ -9736,16 +9730,16 @@
         <v>Ross, Derick</v>
       </c>
       <c r="F57">
-        <f>_xlfn.XLOOKUP(D57,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D57,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H57">
         <v>43957</v>
       </c>
-      <c r="J57" s="16" cm="1">
+      <c r="J57" s="15" cm="1">
         <f t="array" ref="J57">SUMPRODUCT(--(Q57:AO57=IF(B57="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>2</v>
       </c>
@@ -9765,11 +9759,11 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O57" s="21">
+      <c r="O57" s="20">
         <f t="shared" si="3"/>
         <v>12.195121951219512</v>
       </c>
-      <c r="P57" s="22">
+      <c r="P57" s="21">
         <f t="shared" si="4"/>
         <v>-2.611636383698956</v>
       </c>
@@ -9881,9 +9875,9 @@
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C58" s="7">
@@ -9897,16 +9891,16 @@
         <v>Becerril, Destiny</v>
       </c>
       <c r="F58">
-        <f>_xlfn.XLOOKUP(D58,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D58,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43958</v>
       </c>
       <c r="G58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H58">
         <v>43958</v>
       </c>
-      <c r="J58" s="16" cm="1">
+      <c r="J58" s="15" cm="1">
         <f t="array" ref="J58">SUMPRODUCT(--(Q58:AO58=IF(B58="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>12</v>
       </c>
@@ -9926,11 +9920,11 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="O58" s="21">
+      <c r="O58" s="20">
         <f t="shared" si="3"/>
         <v>45.121951219512198</v>
       </c>
-      <c r="P58" s="22">
+      <c r="P58" s="21">
         <f t="shared" si="4"/>
         <v>-0.76441347049324526</v>
       </c>
@@ -10042,9 +10036,9 @@
     </row>
     <row r="59" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C59" s="7">
@@ -10058,16 +10052,16 @@
         <v>Nounvilaythong, Samaria</v>
       </c>
       <c r="F59">
-        <f>_xlfn.XLOOKUP(D59,'Student Roster'!A:A,'Student Roster'!D:D, "Not Found")</f>
+        <f>_xlfn.XLOOKUP(D59,'Student Roster'!A:A,'Student Roster'!C:C, "Not Found")</f>
         <v>43957</v>
       </c>
       <c r="G59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H59">
         <v>43957</v>
       </c>
-      <c r="J59" s="16" cm="1">
+      <c r="J59" s="15" cm="1">
         <f t="array" ref="J59">SUMPRODUCT(--(Q59:AO59=IF(B59="A",$Q$5:$AO$5,$Q$6:$AO$6)))</f>
         <v>17</v>
       </c>
@@ -10087,11 +10081,11 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="O59" s="21">
+      <c r="O59" s="20">
         <f t="shared" si="3"/>
         <v>65.853658536585371</v>
       </c>
-      <c r="P59" s="22">
+      <c r="P59" s="21">
         <f>(O59-$O$62)/$O$63</f>
         <v>0.39865280819183196</v>
       </c>
@@ -10186,7 +10180,7 @@
         <v>142</v>
       </c>
       <c r="AU59" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AV59" s="6" t="s">
         <v>141</v>
@@ -10206,10 +10200,10 @@
         <f>(25-56.8)/17.4</f>
         <v>-1.8275862068965516</v>
       </c>
-      <c r="N62" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="O62" s="21">
+      <c r="N62" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="O62" s="20">
         <f>AVERAGE(O8:O59)</f>
         <v>58.747654784240133</v>
       </c>
@@ -10291,10 +10285,10 @@
       </c>
     </row>
     <row r="63" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="N63" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="O63" s="20">
+      <c r="N63" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="O63" s="19">
         <f>_xlfn.STDEV.P(O8:O59)</f>
         <v>17.825043763208171</v>
       </c>
@@ -10481,6 +10475,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="J1:K1"/>
@@ -10490,12 +10490,6 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A8:H8">
@@ -10527,14 +10521,14 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="str">
+      <c r="B2" s="15" t="str">
         <f>"Q"&amp;ROW()-1</f>
         <v>Q1</v>
       </c>
@@ -10544,13 +10538,13 @@
       <c r="D2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="25" t="str">
+      <c r="E2" s="24" t="str">
         <f>IF(C2=D2,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="str">
+      <c r="B3" s="15" t="str">
         <f t="shared" ref="B3:B36" si="0">"Q"&amp;ROW()-1</f>
         <v>Q2</v>
       </c>
@@ -10560,13 +10554,13 @@
       <c r="D3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="25" t="str">
+      <c r="E3" s="24" t="str">
         <f t="shared" ref="E3:E36" si="1">IF(C3=D3,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="str">
+      <c r="B4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q3</v>
       </c>
@@ -10576,13 +10570,13 @@
       <c r="D4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="25" t="str">
+      <c r="E4" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="str">
+      <c r="B5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
@@ -10592,13 +10586,13 @@
       <c r="D5" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="25" t="str">
+      <c r="E5" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="str">
+      <c r="B6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q5</v>
       </c>
@@ -10608,13 +10602,13 @@
       <c r="D6" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="25" t="str">
+      <c r="E6" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="str">
+      <c r="B7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q6</v>
       </c>
@@ -10624,13 +10618,13 @@
       <c r="D7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="25" t="str">
+      <c r="E7" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q7</v>
       </c>
@@ -10640,13 +10634,13 @@
       <c r="D8" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="25" t="str">
+      <c r="E8" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q8</v>
       </c>
@@ -10656,13 +10650,13 @@
       <c r="D9" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="25" t="str">
+      <c r="E9" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q9</v>
       </c>
@@ -10672,13 +10666,13 @@
       <c r="D10" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="25" t="str">
+      <c r="E10" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="str">
+      <c r="B11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q10</v>
       </c>
@@ -10688,13 +10682,13 @@
       <c r="D11" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="25" t="str">
+      <c r="E11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q11</v>
       </c>
@@ -10704,13 +10698,13 @@
       <c r="D12" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="25" t="str">
+      <c r="E12" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="str">
+      <c r="B13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q12</v>
       </c>
@@ -10720,13 +10714,13 @@
       <c r="D13" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q13</v>
       </c>
@@ -10736,13 +10730,13 @@
       <c r="D14" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="25" t="str">
+      <c r="E14" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q14</v>
       </c>
@@ -10752,13 +10746,13 @@
       <c r="D15" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="25" t="str">
+      <c r="E15" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q15</v>
       </c>
@@ -10768,13 +10762,13 @@
       <c r="D16" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="25" t="str">
+      <c r="E16" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q16</v>
       </c>
@@ -10784,13 +10778,13 @@
       <c r="D17" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="25" t="str">
+      <c r="E17" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q17</v>
       </c>
@@ -10800,13 +10794,13 @@
       <c r="D18" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="25" t="str">
+      <c r="E18" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q18</v>
       </c>
@@ -10816,13 +10810,13 @@
       <c r="D19" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="25" t="str">
+      <c r="E19" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q19</v>
       </c>
@@ -10832,13 +10826,13 @@
       <c r="D20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="25" t="str">
+      <c r="E20" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q20</v>
       </c>
@@ -10848,13 +10842,13 @@
       <c r="D21" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="25" t="str">
+      <c r="E21" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q21</v>
       </c>
@@ -10864,13 +10858,13 @@
       <c r="D22" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="25" t="str">
+      <c r="E22" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q22</v>
       </c>
@@ -10880,13 +10874,13 @@
       <c r="D23" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="25" t="str">
+      <c r="E23" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q23</v>
       </c>
@@ -10896,13 +10890,13 @@
       <c r="D24" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="25" t="str">
+      <c r="E24" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="16" t="str">
+      <c r="B25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q24</v>
       </c>
@@ -10912,13 +10906,13 @@
       <c r="D25" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="25" t="str">
+      <c r="E25" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="16" t="str">
+      <c r="B26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q25</v>
       </c>
@@ -10928,13 +10922,13 @@
       <c r="D26" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="25" t="str">
+      <c r="E26" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="16" t="str">
+      <c r="B27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q26</v>
       </c>
@@ -10944,13 +10938,13 @@
       <c r="D27" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="25" t="str">
+      <c r="E27" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="16" t="str">
+      <c r="B28" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q27</v>
       </c>
@@ -10960,13 +10954,13 @@
       <c r="D28" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="25" t="str">
+      <c r="E28" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="16" t="str">
+      <c r="B29" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q28</v>
       </c>
@@ -10976,13 +10970,13 @@
       <c r="D29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="25" t="str">
+      <c r="E29" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q29</v>
       </c>
@@ -10992,13 +10986,13 @@
       <c r="D30" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="25" t="str">
+      <c r="E30" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="16" t="str">
+      <c r="B31" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q30</v>
       </c>
@@ -11008,13 +11002,13 @@
       <c r="D31" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="25" t="str">
+      <c r="E31" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="16" t="str">
+      <c r="B32" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q31</v>
       </c>
@@ -11024,13 +11018,13 @@
       <c r="D32" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="25" t="str">
+      <c r="E32" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="16" t="str">
+      <c r="B33" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q32</v>
       </c>
@@ -11040,13 +11034,13 @@
       <c r="D33" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="25" t="str">
+      <c r="E33" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="16" t="str">
+      <c r="B34" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q33</v>
       </c>
@@ -11056,13 +11050,13 @@
       <c r="D34" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="25" t="str">
+      <c r="E34" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="16" t="str">
+      <c r="B35" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q34</v>
       </c>
@@ -11072,13 +11066,13 @@
       <c r="D35" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="25" t="str">
+      <c r="E35" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="16" t="str">
+      <c r="B36" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Q35</v>
       </c>
@@ -11088,7 +11082,7 @@
       <c r="D36" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="25" t="str">
+      <c r="E36" s="24" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
@@ -11120,52 +11114,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="H2" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="L2" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="O2" s="23" t="s">
         <v>274</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3">
         <v>43957</v>
@@ -11185,7 +11179,7 @@
       <c r="G3">
         <v>53</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <v>64.634146341463421</v>
       </c>
       <c r="J3">
@@ -11203,29 +11197,29 @@
       <c r="N3">
         <v>56</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="20">
         <v>68.292682926829272</v>
       </c>
       <c r="P3" s="6" t="str">
         <f>IF(O3&gt;H3,"+",IF(O3&lt;H3,"-",S3))</f>
         <v>+</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="20">
         <f>IF(O3&gt;H3,O3,H3)</f>
         <v>68.292682926829272</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="20">
         <f>(Q3-$Q$56)/$Q$57</f>
         <v>0.51800397490289407</v>
       </c>
-      <c r="S3" s="25" t="str">
+      <c r="S3" s="24" t="str">
         <f>IF(R3&lt;=-2,"XXX",IF(AND(R3&lt;=-1.5,R3&gt;-2),"XX",IF(AND(R3&lt;=-1,R3&gt;-1.5),"X","")))</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4">
         <v>43957</v>
@@ -11245,7 +11239,7 @@
       <c r="G4">
         <v>76</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>92.682926829268297</v>
       </c>
       <c r="J4">
@@ -11263,29 +11257,29 @@
       <c r="N4">
         <v>79</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="20">
         <v>96.341463414634148</v>
       </c>
       <c r="P4" s="6" t="str">
         <f t="shared" ref="P4:P54" si="0">IF(O4&gt;H4,"+",IF(O4&lt;H4,"-",S4))</f>
         <v>+</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="20">
         <f t="shared" ref="Q4:Q54" si="1">IF(O4&gt;H4,O4,H4)</f>
         <v>96.341463414634148</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="20">
         <f t="shared" ref="R4:R54" si="2">(Q4-$Q$56)/$Q$57</f>
         <v>2.0984446738413145</v>
       </c>
-      <c r="S4" s="25" t="str">
+      <c r="S4" s="24" t="str">
         <f t="shared" ref="S4:S54" si="3">IF(R4&lt;=-2,"XXX",IF(AND(R4&lt;=-1.5,R4&gt;-2),"XX",IF(AND(R4&lt;=-1,R4&gt;-1.5),"X","")))</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5">
         <v>43958</v>
@@ -11305,7 +11299,7 @@
       <c r="G5">
         <v>32</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>39.024390243902438</v>
       </c>
       <c r="J5">
@@ -11323,29 +11317,29 @@
       <c r="N5">
         <v>29</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="20">
         <v>35.365853658536587</v>
       </c>
       <c r="P5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="20">
         <f t="shared" si="1"/>
         <v>39.024390243902438</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="20">
         <f t="shared" si="2"/>
         <v>-1.1311515370328493</v>
       </c>
-      <c r="S5" s="25" t="str">
+      <c r="S5" s="24" t="str">
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6">
         <v>43958</v>
@@ -11365,7 +11359,7 @@
       <c r="G6">
         <v>40</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>48.780487804878049</v>
       </c>
       <c r="J6">
@@ -11383,29 +11377,29 @@
       <c r="N6">
         <v>37</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="20">
         <v>45.121951219512198</v>
       </c>
       <c r="P6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="20">
         <f t="shared" si="1"/>
         <v>48.780487804878049</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="20">
         <f t="shared" si="2"/>
         <v>-0.58143303305426808</v>
       </c>
-      <c r="S6" s="25" t="str">
+      <c r="S6" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7">
         <v>43958</v>
@@ -11425,7 +11419,7 @@
       <c r="G7">
         <v>46</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>56.097560975609753</v>
       </c>
       <c r="J7">
@@ -11443,29 +11437,29 @@
       <c r="N7">
         <v>49</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="20">
         <v>59.756097560975611</v>
       </c>
       <c r="P7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="20">
         <f t="shared" si="1"/>
         <v>59.756097560975611</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="20">
         <f t="shared" si="2"/>
         <v>3.7000283921635582E-2</v>
       </c>
-      <c r="S7" s="25" t="str">
+      <c r="S7" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8">
         <v>43958</v>
@@ -11485,7 +11479,7 @@
       <c r="G8">
         <v>38</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>46.341463414634148</v>
       </c>
       <c r="J8">
@@ -11503,29 +11497,29 @@
       <c r="N8">
         <v>41</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <v>50</v>
       </c>
       <c r="P8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="20">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="20">
         <f t="shared" si="2"/>
         <v>-0.51271822005694556</v>
       </c>
-      <c r="S8" s="25" t="str">
+      <c r="S8" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9">
         <v>43957</v>
@@ -11545,7 +11539,7 @@
       <c r="G9">
         <v>59</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>71.951219512195124</v>
       </c>
       <c r="J9">
@@ -11563,29 +11557,29 @@
       <c r="N9">
         <v>62</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="20">
         <v>75.609756097560975</v>
       </c>
       <c r="P9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="20">
         <f t="shared" si="1"/>
         <v>75.609756097560975</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="20">
         <f t="shared" si="2"/>
         <v>0.93029285288682961</v>
       </c>
-      <c r="S9" s="25" t="str">
+      <c r="S9" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10">
         <v>43957</v>
@@ -11605,7 +11599,7 @@
       <c r="G10">
         <v>35</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>42.68292682926829</v>
       </c>
       <c r="J10">
@@ -11623,29 +11617,29 @@
       <c r="N10">
         <v>38</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="20">
         <v>46.341463414634148</v>
       </c>
       <c r="P10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="20">
         <f t="shared" si="1"/>
         <v>46.341463414634148</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="20">
         <f t="shared" si="2"/>
         <v>-0.71886265904891333</v>
       </c>
-      <c r="S10" s="25" t="str">
+      <c r="S10" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11">
         <v>43957</v>
@@ -11665,7 +11659,7 @@
       <c r="G11">
         <v>75</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>91.463414634146346</v>
       </c>
       <c r="J11">
@@ -11683,29 +11677,29 @@
       <c r="N11">
         <v>78</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="20">
         <v>95.121951219512198</v>
       </c>
       <c r="P11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="20">
         <f t="shared" si="1"/>
         <v>95.121951219512198</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="20">
         <f t="shared" si="2"/>
         <v>2.0297298608439918</v>
       </c>
-      <c r="S11" s="25" t="str">
+      <c r="S11" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12">
         <v>43957</v>
@@ -11725,7 +11719,7 @@
       <c r="G12">
         <v>26</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>31.707317073170731</v>
       </c>
       <c r="J12">
@@ -11743,29 +11737,29 @@
       <c r="N12">
         <v>29</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="20">
         <v>35.365853658536587</v>
       </c>
       <c r="P12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="20">
         <f t="shared" si="1"/>
         <v>35.365853658536587</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="20">
         <f t="shared" si="2"/>
         <v>-1.3372959760248171</v>
       </c>
-      <c r="S12" s="25" t="str">
+      <c r="S12" s="24" t="str">
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13">
         <v>43957</v>
@@ -11785,7 +11779,7 @@
       <c r="G13">
         <v>47</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>57.31707317073171</v>
       </c>
       <c r="J13">
@@ -11803,29 +11797,29 @@
       <c r="N13">
         <v>59.8</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="20">
         <v>60.975609756097562</v>
       </c>
       <c r="P13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="20">
         <f t="shared" si="1"/>
         <v>60.975609756097562</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="20">
         <f t="shared" si="2"/>
         <v>0.10571509691895817</v>
       </c>
-      <c r="S13" s="25" t="str">
+      <c r="S13" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14">
         <v>43957</v>
@@ -11845,7 +11839,7 @@
       <c r="G14">
         <v>57</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>69.512195121951223</v>
       </c>
       <c r="J14">
@@ -11863,29 +11857,29 @@
       <c r="N14">
         <v>53.7</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="20">
         <v>65.853658536585371</v>
       </c>
       <c r="P14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="20">
         <f t="shared" si="1"/>
         <v>69.512195121951223</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="20">
         <f t="shared" si="2"/>
         <v>0.5867187879002167</v>
       </c>
-      <c r="S14" s="25" t="str">
+      <c r="S14" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15">
         <v>43958</v>
@@ -11905,7 +11899,7 @@
       <c r="G15">
         <v>55</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <v>67.073170731707322</v>
       </c>
       <c r="J15">
@@ -11923,29 +11917,29 @@
       <c r="N15">
         <v>52</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="20">
         <v>63.414634146341463</v>
       </c>
       <c r="P15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="20">
         <f t="shared" si="1"/>
         <v>67.073170731707322</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="20">
         <f t="shared" si="2"/>
         <v>0.4492891619055715</v>
       </c>
-      <c r="S15" s="25" t="str">
+      <c r="S15" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16">
         <v>43957</v>
@@ -11965,7 +11959,7 @@
       <c r="G16">
         <v>23</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>28.048780487804876</v>
       </c>
       <c r="J16">
@@ -11983,29 +11977,29 @@
       <c r="N16">
         <v>26</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="20">
         <v>31.707317073170731</v>
       </c>
       <c r="P16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="20">
         <f t="shared" si="1"/>
         <v>31.707317073170731</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="20">
         <f t="shared" si="2"/>
         <v>-1.5434404150167849</v>
       </c>
-      <c r="S16" s="25" t="str">
+      <c r="S16" s="24" t="str">
         <f t="shared" si="3"/>
         <v>XX</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17">
         <v>43958</v>
@@ -12025,7 +12019,7 @@
       <c r="G17">
         <v>47</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>57.31707317073171</v>
       </c>
       <c r="J17">
@@ -12043,29 +12037,29 @@
       <c r="N17">
         <v>44</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="20">
         <v>53.658536585365852</v>
       </c>
       <c r="P17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="20">
         <f t="shared" si="1"/>
         <v>57.31707317073171</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R17" s="20">
         <f t="shared" si="2"/>
         <v>-0.1004293420730096</v>
       </c>
-      <c r="S17" s="25" t="str">
+      <c r="S17" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18">
         <v>43958</v>
@@ -12085,7 +12079,7 @@
       <c r="G18">
         <v>34</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>41.463414634146339</v>
       </c>
       <c r="J18">
@@ -12103,29 +12097,29 @@
       <c r="N18">
         <v>37</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="20">
         <v>45.121951219512198</v>
       </c>
       <c r="P18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="20">
         <f t="shared" si="1"/>
         <v>45.121951219512198</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="20">
         <f t="shared" si="2"/>
         <v>-0.78757747204623585</v>
       </c>
-      <c r="S18" s="25" t="str">
+      <c r="S18" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19">
         <v>43958</v>
@@ -12145,7 +12139,7 @@
       <c r="G19">
         <v>46</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>56.097560975609753</v>
       </c>
       <c r="J19">
@@ -12163,29 +12157,29 @@
       <c r="N19">
         <v>49</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="20">
         <v>59.756097560975611</v>
       </c>
       <c r="P19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="20">
         <f t="shared" si="1"/>
         <v>59.756097560975611</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="20">
         <f t="shared" si="2"/>
         <v>3.7000283921635582E-2</v>
       </c>
-      <c r="S19" s="25" t="str">
+      <c r="S19" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20">
         <v>43957</v>
@@ -12205,7 +12199,7 @@
       <c r="G20">
         <v>40</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>48.780487804878049</v>
       </c>
       <c r="J20">
@@ -12223,29 +12217,29 @@
       <c r="N20">
         <v>43</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="20">
         <v>52.439024390243901</v>
       </c>
       <c r="P20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="20">
         <f t="shared" si="1"/>
         <v>52.439024390243901</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="20">
         <f t="shared" si="2"/>
         <v>-0.37528859406230036</v>
       </c>
-      <c r="S20" s="25" t="str">
+      <c r="S20" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21">
         <v>43958</v>
@@ -12265,7 +12259,7 @@
       <c r="G21">
         <v>47</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <v>57.31707317073171</v>
       </c>
       <c r="J21">
@@ -12283,29 +12277,29 @@
       <c r="N21">
         <v>44</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="20">
         <v>53.658536585365852</v>
       </c>
       <c r="P21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q21" s="20">
         <f t="shared" si="1"/>
         <v>57.31707317073171</v>
       </c>
-      <c r="R21" s="21">
+      <c r="R21" s="20">
         <f t="shared" si="2"/>
         <v>-0.1004293420730096</v>
       </c>
-      <c r="S21" s="25" t="str">
+      <c r="S21" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22">
         <v>43958</v>
@@ -12325,7 +12319,7 @@
       <c r="G22">
         <v>43</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>52.439024390243901</v>
       </c>
       <c r="J22">
@@ -12343,29 +12337,29 @@
       <c r="N22">
         <v>46</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="20">
         <v>56.097560975609753</v>
       </c>
       <c r="P22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="20">
         <f t="shared" si="1"/>
         <v>56.097560975609753</v>
       </c>
-      <c r="R22" s="21">
+      <c r="R22" s="20">
         <f t="shared" si="2"/>
         <v>-0.16914415507033259</v>
       </c>
-      <c r="S22" s="25" t="str">
+      <c r="S22" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23">
         <v>43958</v>
@@ -12385,7 +12379,7 @@
       <c r="G23">
         <v>38</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <v>46.341463414634148</v>
       </c>
       <c r="J23">
@@ -12403,29 +12397,29 @@
       <c r="N23">
         <v>41</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="20">
         <v>50</v>
       </c>
       <c r="P23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="Q23" s="20">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23" s="20">
         <f t="shared" si="2"/>
         <v>-0.51271822005694556</v>
       </c>
-      <c r="S23" s="25" t="str">
+      <c r="S23" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24">
         <v>43958</v>
@@ -12445,7 +12439,7 @@
       <c r="G24">
         <v>28</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <v>34.146341463414636</v>
       </c>
       <c r="J24">
@@ -12463,29 +12457,29 @@
       <c r="N24">
         <v>31</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="20">
         <v>37.804878048780488</v>
       </c>
       <c r="P24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="20">
         <f t="shared" si="1"/>
         <v>37.804878048780488</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24" s="20">
         <f t="shared" si="2"/>
         <v>-1.1998663500301718</v>
       </c>
-      <c r="S24" s="25" t="str">
+      <c r="S24" s="24" t="str">
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25">
         <v>43958</v>
@@ -12505,7 +12499,7 @@
       <c r="G25">
         <v>68</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <v>82.926829268292678</v>
       </c>
       <c r="J25">
@@ -12523,29 +12517,29 @@
       <c r="N25">
         <v>71</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="20">
         <v>86.58536585365853</v>
       </c>
       <c r="P25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="20">
         <f t="shared" si="1"/>
         <v>86.58536585365853</v>
       </c>
-      <c r="R25" s="21">
+      <c r="R25" s="20">
         <f t="shared" si="2"/>
         <v>1.548726169862733</v>
       </c>
-      <c r="S25" s="25" t="str">
+      <c r="S25" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26">
         <v>43958</v>
@@ -12565,7 +12559,7 @@
       <c r="G26">
         <v>31</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="20">
         <v>37.804878048780488</v>
       </c>
       <c r="J26">
@@ -12583,29 +12577,29 @@
       <c r="N26">
         <v>28</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="20">
         <v>34.146341463414636</v>
       </c>
       <c r="P26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="20">
         <f t="shared" si="1"/>
         <v>37.804878048780488</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26" s="20">
         <f t="shared" si="2"/>
         <v>-1.1998663500301718</v>
       </c>
-      <c r="S26" s="25" t="str">
+      <c r="S26" s="24" t="str">
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27">
         <v>43957</v>
@@ -12625,7 +12619,7 @@
       <c r="G27">
         <v>31</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="20">
         <v>37.804878048780488</v>
       </c>
       <c r="J27">
@@ -12643,29 +12637,29 @@
       <c r="N27">
         <v>31</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="20">
         <v>37.804878048780488</v>
       </c>
       <c r="P27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="20">
         <f t="shared" si="1"/>
         <v>37.804878048780488</v>
       </c>
-      <c r="R27" s="21">
+      <c r="R27" s="20">
         <f t="shared" si="2"/>
         <v>-1.1998663500301718</v>
       </c>
-      <c r="S27" s="25" t="str">
+      <c r="S27" s="24" t="str">
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28">
         <v>43958</v>
@@ -12685,7 +12679,7 @@
       <c r="G28">
         <v>54</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="20">
         <v>65.853658536585371</v>
       </c>
       <c r="J28">
@@ -12703,29 +12697,29 @@
       <c r="N28">
         <v>57</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="20">
         <v>69.512195121951223</v>
       </c>
       <c r="P28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q28" s="20">
         <f t="shared" si="1"/>
         <v>69.512195121951223</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R28" s="20">
         <f t="shared" si="2"/>
         <v>0.5867187879002167</v>
       </c>
-      <c r="S28" s="25" t="str">
+      <c r="S28" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29">
         <v>43957</v>
@@ -12745,7 +12739,7 @@
       <c r="G29">
         <v>44</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="20">
         <v>53.658536585365852</v>
       </c>
       <c r="J29">
@@ -12763,29 +12757,29 @@
       <c r="N29">
         <v>47</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="20">
         <v>57.31707317073171</v>
       </c>
       <c r="P29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="Q29" s="20">
         <f t="shared" si="1"/>
         <v>57.31707317073171</v>
       </c>
-      <c r="R29" s="21">
+      <c r="R29" s="20">
         <f>(Q29-$Q$56)/$Q$57</f>
         <v>-0.1004293420730096</v>
       </c>
-      <c r="S29" s="25" t="str">
+      <c r="S29" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B30">
         <v>43958</v>
@@ -12805,7 +12799,7 @@
       <c r="G30">
         <v>49</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="20">
         <v>59.756097560975611</v>
       </c>
       <c r="J30">
@@ -12823,29 +12817,29 @@
       <c r="N30">
         <v>52</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="20">
         <v>63.414634146341463</v>
       </c>
       <c r="P30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="Q30" s="20">
         <f t="shared" si="1"/>
         <v>63.414634146341463</v>
       </c>
-      <c r="R30" s="21">
+      <c r="R30" s="20">
         <f t="shared" si="2"/>
         <v>0.24314472291360334</v>
       </c>
-      <c r="S30" s="25" t="str">
+      <c r="S30" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31">
         <v>43958</v>
@@ -12865,7 +12859,7 @@
       <c r="G31">
         <v>55</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <v>67.073170731707322</v>
       </c>
       <c r="J31">
@@ -12883,29 +12877,29 @@
       <c r="N31">
         <v>58</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="20">
         <v>70.731707317073173</v>
       </c>
       <c r="P31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="Q31" s="20">
         <f t="shared" si="1"/>
         <v>70.731707317073173</v>
       </c>
-      <c r="R31" s="21">
+      <c r="R31" s="20">
         <f t="shared" si="2"/>
         <v>0.65543360089753933</v>
       </c>
-      <c r="S31" s="25" t="str">
+      <c r="S31" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B32">
         <v>43957</v>
@@ -12925,7 +12919,7 @@
       <c r="G32">
         <v>42</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="20">
         <v>51.219512195121951</v>
       </c>
       <c r="J32">
@@ -12943,29 +12937,29 @@
       <c r="N32">
         <v>45</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="20">
         <v>54.878048780487802</v>
       </c>
       <c r="P32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32" s="20">
         <f t="shared" si="1"/>
         <v>54.878048780487802</v>
       </c>
-      <c r="R32" s="21">
+      <c r="R32" s="20">
         <f t="shared" si="2"/>
         <v>-0.23785896806765516</v>
       </c>
-      <c r="S32" s="25" t="str">
+      <c r="S32" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B33">
         <v>43957</v>
@@ -12985,7 +12979,7 @@
       <c r="G33">
         <v>38</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="20">
         <v>46.341463414634148</v>
       </c>
       <c r="J33">
@@ -13003,29 +12997,29 @@
       <c r="N33">
         <v>38</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="20">
         <v>46.341463414634148</v>
       </c>
       <c r="P33" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q33" s="21">
+      <c r="Q33" s="20">
         <f t="shared" si="1"/>
         <v>46.341463414634148</v>
       </c>
-      <c r="R33" s="21">
+      <c r="R33" s="20">
         <f t="shared" si="2"/>
         <v>-0.71886265904891333</v>
       </c>
-      <c r="S33" s="25" t="str">
+      <c r="S33" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B34">
         <v>43958</v>
@@ -13045,7 +13039,7 @@
       <c r="G34">
         <v>59</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="20">
         <v>71.951219512195124</v>
       </c>
       <c r="J34">
@@ -13063,29 +13057,29 @@
       <c r="N34">
         <v>62</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="20">
         <v>75.609756097560975</v>
       </c>
       <c r="P34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="20">
         <f t="shared" si="1"/>
         <v>75.609756097560975</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R34" s="20">
         <f t="shared" si="2"/>
         <v>0.93029285288682961</v>
       </c>
-      <c r="S34" s="25" t="str">
+      <c r="S34" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35">
         <v>43958</v>
@@ -13105,7 +13099,7 @@
       <c r="G35">
         <v>66</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="20">
         <v>80.487804878048777</v>
       </c>
       <c r="J35">
@@ -13123,29 +13117,29 @@
       <c r="N35">
         <v>63</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="20">
         <v>76.829268292682926</v>
       </c>
       <c r="P35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q35" s="21">
+      <c r="Q35" s="20">
         <f t="shared" si="1"/>
         <v>80.487804878048777</v>
       </c>
-      <c r="R35" s="21">
+      <c r="R35" s="20">
         <f t="shared" si="2"/>
         <v>1.20515210487612</v>
       </c>
-      <c r="S35" s="25" t="str">
+      <c r="S35" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B36">
         <v>43957</v>
@@ -13165,7 +13159,7 @@
       <c r="G36">
         <v>51</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="20">
         <v>62.195121951219512</v>
       </c>
       <c r="J36">
@@ -13183,29 +13177,29 @@
       <c r="N36">
         <v>54</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="20">
         <v>65.853658536585371</v>
       </c>
       <c r="P36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q36" s="21">
+      <c r="Q36" s="20">
         <f t="shared" si="1"/>
         <v>65.853658536585371</v>
       </c>
-      <c r="R36" s="21">
+      <c r="R36" s="20">
         <f t="shared" si="2"/>
         <v>0.38057434890824893</v>
       </c>
-      <c r="S36" s="25" t="str">
+      <c r="S36" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B37">
         <v>43957</v>
@@ -13225,7 +13219,7 @@
       <c r="G37">
         <v>64</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="20">
         <v>78.048780487804876</v>
       </c>
       <c r="J37">
@@ -13243,29 +13237,29 @@
       <c r="N37">
         <v>61</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="20">
         <v>74.390243902439025</v>
       </c>
       <c r="P37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q37" s="21">
+      <c r="Q37" s="20">
         <f t="shared" si="1"/>
         <v>78.048780487804876</v>
       </c>
-      <c r="R37" s="21">
+      <c r="R37" s="20">
         <f t="shared" si="2"/>
         <v>1.0677224788814748</v>
       </c>
-      <c r="S37" s="25" t="str">
+      <c r="S37" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B38">
         <v>43958</v>
@@ -13285,7 +13279,7 @@
       <c r="G38">
         <v>46</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="20">
         <v>56.097560975609753</v>
       </c>
       <c r="J38">
@@ -13303,29 +13297,29 @@
       <c r="N38">
         <v>49</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="20">
         <v>59.756097560975611</v>
       </c>
       <c r="P38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="Q38" s="20">
         <f t="shared" si="1"/>
         <v>59.756097560975611</v>
       </c>
-      <c r="R38" s="21">
+      <c r="R38" s="20">
         <f t="shared" si="2"/>
         <v>3.7000283921635582E-2</v>
       </c>
-      <c r="S38" s="25" t="str">
+      <c r="S38" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B39">
         <v>43957</v>
@@ -13345,7 +13339,7 @@
       <c r="G39">
         <v>44</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="20">
         <v>53.658536585365852</v>
       </c>
       <c r="J39">
@@ -13363,29 +13357,29 @@
       <c r="N39">
         <v>47</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O39" s="20">
         <v>57.31707317073171</v>
       </c>
       <c r="P39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q39" s="21">
+      <c r="Q39" s="20">
         <f t="shared" si="1"/>
         <v>57.31707317073171</v>
       </c>
-      <c r="R39" s="21">
+      <c r="R39" s="20">
         <f t="shared" si="2"/>
         <v>-0.1004293420730096</v>
       </c>
-      <c r="S39" s="25" t="str">
+      <c r="S39" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B40">
         <v>43957</v>
@@ -13405,7 +13399,7 @@
       <c r="G40">
         <v>59</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="20">
         <v>71.951219512195124</v>
       </c>
       <c r="J40">
@@ -13423,29 +13417,29 @@
       <c r="N40">
         <v>56</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="20">
         <v>68.292682926829272</v>
       </c>
       <c r="P40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q40" s="21">
+      <c r="Q40" s="20">
         <f t="shared" si="1"/>
         <v>71.951219512195124</v>
       </c>
-      <c r="R40" s="21">
+      <c r="R40" s="20">
         <f t="shared" si="2"/>
         <v>0.72414841389486184</v>
       </c>
-      <c r="S40" s="25" t="str">
+      <c r="S40" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B41">
         <v>43958</v>
@@ -13465,7 +13459,7 @@
       <c r="G41">
         <v>31</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="20">
         <v>37.804878048780488</v>
       </c>
       <c r="J41">
@@ -13483,29 +13477,29 @@
       <c r="N41">
         <v>34</v>
       </c>
-      <c r="O41" s="21">
+      <c r="O41" s="20">
         <v>41.463414634146339</v>
       </c>
       <c r="P41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q41" s="21">
+      <c r="Q41" s="20">
         <f t="shared" si="1"/>
         <v>41.463414634146339</v>
       </c>
-      <c r="R41" s="21">
+      <c r="R41" s="20">
         <f t="shared" si="2"/>
         <v>-0.99372191103820406</v>
       </c>
-      <c r="S41" s="25" t="str">
+      <c r="S41" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B42">
         <v>43957</v>
@@ -13525,7 +13519,7 @@
       <c r="G42">
         <v>59</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="20">
         <v>71.951219512195124</v>
       </c>
       <c r="J42">
@@ -13543,29 +13537,29 @@
       <c r="N42">
         <v>56</v>
       </c>
-      <c r="O42" s="21">
+      <c r="O42" s="20">
         <v>68.292682926829272</v>
       </c>
       <c r="P42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q42" s="21">
+      <c r="Q42" s="20">
         <f t="shared" si="1"/>
         <v>71.951219512195124</v>
       </c>
-      <c r="R42" s="21">
+      <c r="R42" s="20">
         <f t="shared" si="2"/>
         <v>0.72414841389486184</v>
       </c>
-      <c r="S42" s="25" t="str">
+      <c r="S42" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B43">
         <v>43958</v>
@@ -13585,7 +13579,7 @@
       <c r="G43">
         <v>54</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="20">
         <v>65.853658536585371</v>
       </c>
       <c r="J43">
@@ -13603,29 +13597,29 @@
       <c r="N43">
         <v>57</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O43" s="20">
         <v>69.512195121951223</v>
       </c>
       <c r="P43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q43" s="21">
+      <c r="Q43" s="20">
         <f t="shared" si="1"/>
         <v>69.512195121951223</v>
       </c>
-      <c r="R43" s="21">
+      <c r="R43" s="20">
         <f t="shared" si="2"/>
         <v>0.5867187879002167</v>
       </c>
-      <c r="S43" s="25" t="str">
+      <c r="S43" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44">
         <v>43958</v>
@@ -13645,7 +13639,7 @@
       <c r="G44">
         <v>55</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="20">
         <v>67.073170731707322</v>
       </c>
       <c r="J44">
@@ -13663,29 +13657,29 @@
       <c r="N44">
         <v>58</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="20">
         <v>70.731707317073173</v>
       </c>
       <c r="P44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q44" s="21">
+      <c r="Q44" s="20">
         <f t="shared" si="1"/>
         <v>70.731707317073173</v>
       </c>
-      <c r="R44" s="21">
+      <c r="R44" s="20">
         <f t="shared" si="2"/>
         <v>0.65543360089753933</v>
       </c>
-      <c r="S44" s="25" t="str">
+      <c r="S44" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B45">
         <v>43957</v>
@@ -13705,7 +13699,7 @@
       <c r="G45">
         <v>10</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="20">
         <v>12.195121951219512</v>
       </c>
       <c r="J45">
@@ -13723,29 +13717,29 @@
       <c r="N45">
         <v>10</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="20">
         <v>12.195121951219512</v>
       </c>
       <c r="P45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>XXX</v>
       </c>
-      <c r="Q45" s="21">
+      <c r="Q45" s="20">
         <f t="shared" si="1"/>
         <v>12.195121951219512</v>
       </c>
-      <c r="R45" s="21">
+      <c r="R45" s="20">
         <f t="shared" si="2"/>
         <v>-2.6428774229739469</v>
       </c>
-      <c r="S45" s="25" t="str">
+      <c r="S45" s="24" t="str">
         <f t="shared" si="3"/>
         <v>XXX</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B46">
         <v>43958</v>
@@ -13765,7 +13759,7 @@
       <c r="G46">
         <v>53</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="20">
         <v>64.634146341463421</v>
       </c>
       <c r="J46">
@@ -13783,29 +13777,29 @@
       <c r="N46">
         <v>56</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="20">
         <v>68.292682926829272</v>
       </c>
       <c r="P46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q46" s="21">
+      <c r="Q46" s="20">
         <f t="shared" si="1"/>
         <v>68.292682926829272</v>
       </c>
-      <c r="R46" s="21">
+      <c r="R46" s="20">
         <f t="shared" si="2"/>
         <v>0.51800397490289407</v>
       </c>
-      <c r="S46" s="25" t="str">
+      <c r="S46" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B47">
         <v>43957</v>
@@ -13825,7 +13819,7 @@
       <c r="G47">
         <v>48</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="20">
         <v>58.536585365853661</v>
       </c>
       <c r="J47">
@@ -13843,29 +13837,29 @@
       <c r="N47">
         <v>45</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O47" s="20">
         <v>54.878048780487802</v>
       </c>
       <c r="P47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q47" s="21">
+      <c r="Q47" s="20">
         <f t="shared" si="1"/>
         <v>58.536585365853661</v>
       </c>
-      <c r="R47" s="21">
+      <c r="R47" s="20">
         <f t="shared" si="2"/>
         <v>-3.171452907568701E-2</v>
       </c>
-      <c r="S47" s="25" t="str">
+      <c r="S47" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B48">
         <v>43957</v>
@@ -13885,7 +13879,7 @@
       <c r="G48">
         <v>21</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="20">
         <v>25.609756097560975</v>
       </c>
       <c r="J48">
@@ -13903,29 +13897,29 @@
       <c r="N48">
         <v>21</v>
       </c>
-      <c r="O48" s="21">
+      <c r="O48" s="20">
         <v>25.609756097560975</v>
       </c>
       <c r="P48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>XX</v>
       </c>
-      <c r="Q48" s="21">
+      <c r="Q48" s="20">
         <f t="shared" si="1"/>
         <v>25.609756097560975</v>
       </c>
-      <c r="R48" s="21">
+      <c r="R48" s="20">
         <f t="shared" si="2"/>
         <v>-1.8870144800033981</v>
       </c>
-      <c r="S48" s="25" t="str">
+      <c r="S48" s="24" t="str">
         <f t="shared" si="3"/>
         <v>XX</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B49">
         <v>43957</v>
@@ -13945,7 +13939,7 @@
       <c r="G49">
         <v>78</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="20">
         <v>95.121951219512198</v>
       </c>
       <c r="J49">
@@ -13963,29 +13957,29 @@
       <c r="N49">
         <v>81</v>
       </c>
-      <c r="O49" s="21">
+      <c r="O49" s="20">
         <v>98.780487804878049</v>
       </c>
       <c r="P49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q49" s="21">
+      <c r="Q49" s="20">
         <f t="shared" si="1"/>
         <v>98.780487804878049</v>
       </c>
-      <c r="R49" s="21">
+      <c r="R49" s="20">
         <f t="shared" si="2"/>
         <v>2.2358742998359595</v>
       </c>
-      <c r="S49" s="25" t="str">
+      <c r="S49" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B50">
         <v>43957</v>
@@ -14005,7 +13999,7 @@
       <c r="G50">
         <v>50</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="20">
         <v>60.975609756097562</v>
       </c>
       <c r="J50">
@@ -14023,29 +14017,29 @@
       <c r="N50">
         <v>53</v>
       </c>
-      <c r="O50" s="21">
+      <c r="O50" s="20">
         <v>64.634146341463421</v>
       </c>
       <c r="P50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q50" s="21">
+      <c r="Q50" s="20">
         <f t="shared" si="1"/>
         <v>64.634146341463421</v>
       </c>
-      <c r="R50" s="21">
+      <c r="R50" s="20">
         <f t="shared" si="2"/>
         <v>0.31185953591092636</v>
       </c>
-      <c r="S50" s="25" t="str">
+      <c r="S50" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B51">
         <v>43957</v>
@@ -14065,7 +14059,7 @@
       <c r="G51">
         <v>29</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="20">
         <v>35.365853658536587</v>
       </c>
       <c r="J51">
@@ -14083,29 +14077,29 @@
       <c r="N51">
         <v>29</v>
       </c>
-      <c r="O51" s="21">
+      <c r="O51" s="20">
         <v>35.365853658536587</v>
       </c>
       <c r="P51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="Q51" s="21">
+      <c r="Q51" s="20">
         <f t="shared" si="1"/>
         <v>35.365853658536587</v>
       </c>
-      <c r="R51" s="21">
+      <c r="R51" s="20">
         <f t="shared" si="2"/>
         <v>-1.3372959760248171</v>
       </c>
-      <c r="S51" s="25" t="str">
+      <c r="S51" s="24" t="str">
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B52">
         <v>43957</v>
@@ -14125,7 +14119,7 @@
       <c r="G52">
         <v>36</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="20">
         <v>43.902439024390247</v>
       </c>
       <c r="J52">
@@ -14143,29 +14137,29 @@
       <c r="N52">
         <v>36</v>
       </c>
-      <c r="O52" s="21">
+      <c r="O52" s="20">
         <v>43.902439024390247</v>
       </c>
       <c r="P52" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q52" s="21">
+      <c r="Q52" s="20">
         <f t="shared" si="1"/>
         <v>43.902439024390247</v>
       </c>
-      <c r="R52" s="21">
+      <c r="R52" s="20">
         <f t="shared" si="2"/>
         <v>-0.85629228504355848</v>
       </c>
-      <c r="S52" s="25" t="str">
+      <c r="S52" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B53">
         <v>43958</v>
@@ -14185,7 +14179,7 @@
       <c r="G53">
         <v>64</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="20">
         <v>78.048780487804876</v>
       </c>
       <c r="J53">
@@ -14203,29 +14197,29 @@
       <c r="N53">
         <v>61</v>
       </c>
-      <c r="O53" s="21">
+      <c r="O53" s="20">
         <v>74.390243902439025</v>
       </c>
       <c r="P53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="Q53" s="21">
+      <c r="Q53" s="20">
         <f t="shared" si="1"/>
         <v>78.048780487804876</v>
       </c>
-      <c r="R53" s="21">
+      <c r="R53" s="20">
         <f t="shared" si="2"/>
         <v>1.0677224788814748</v>
       </c>
-      <c r="S53" s="25" t="str">
+      <c r="S53" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B54">
         <v>43958</v>
@@ -14245,7 +14239,7 @@
       <c r="G54">
         <v>47</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="20">
         <v>57.31707317073171</v>
       </c>
       <c r="J54">
@@ -14263,40 +14257,40 @@
       <c r="N54">
         <v>50</v>
       </c>
-      <c r="O54" s="21">
+      <c r="O54" s="20">
         <v>60.975609756097562</v>
       </c>
       <c r="P54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>+</v>
       </c>
-      <c r="Q54" s="21">
+      <c r="Q54" s="20">
         <f t="shared" si="1"/>
         <v>60.975609756097562</v>
       </c>
-      <c r="R54" s="21">
+      <c r="R54" s="20">
         <f t="shared" si="2"/>
         <v>0.10571509691895817</v>
       </c>
-      <c r="S54" s="25" t="str">
+      <c r="S54" s="24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P56" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q56" s="21">
+        <v>278</v>
+      </c>
+      <c r="Q56" s="20">
         <f>AVERAGE(Q3:Q54)</f>
         <v>59.099437148217632</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P57" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q57" s="21">
+        <v>279</v>
+      </c>
+      <c r="Q57" s="20">
         <f>_xlfn.STDEV.P(Q3:Q54)</f>
         <v>17.74744253716397</v>
       </c>
@@ -15548,1689 +15542,1520 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F66C2B6-E81E-4014-BBAB-A216F17AE17F}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F17" sqref="F17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="46.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
-    <col min="10" max="10" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="17">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="16">
         <f>COUNTA(B3:B58)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>694264</v>
+      </c>
+      <c r="B3" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="C3" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="12">
+        <v>345856</v>
+      </c>
+      <c r="G3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>873290</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="12">
+        <v>490011</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>1016534</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="12">
+        <v>517817</v>
+      </c>
+      <c r="G5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>1070102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="12">
+        <v>523330</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>759215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="12">
+        <v>547169</v>
+      </c>
+      <c r="G7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>576373</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="12">
+        <v>574404</v>
+      </c>
+      <c r="G8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>994114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="12">
+        <v>576373</v>
+      </c>
+      <c r="G9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>1024952</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="12">
+        <v>684403</v>
+      </c>
+      <c r="G10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>888543</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="12">
+        <v>694264</v>
+      </c>
+      <c r="G11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>694264</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H11" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I11" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="7">
-        <v>694264</v>
-      </c>
-      <c r="D3" s="6">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>737921</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="6">
         <v>43957</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="12">
+        <v>737921</v>
+      </c>
+      <c r="G12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>1039936</v>
+      </c>
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="12">
+        <v>754151</v>
+      </c>
+      <c r="G13" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>790131</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="12">
+        <v>759215</v>
+      </c>
+      <c r="G14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>778750</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="12">
+        <v>775232</v>
+      </c>
+      <c r="G15" t="s">
+        <v>257</v>
+      </c>
+      <c r="H15" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>490011</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="12">
+        <v>778750</v>
+      </c>
+      <c r="G16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>1063699</v>
+      </c>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="12">
+        <v>790131</v>
+      </c>
+      <c r="G17" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>910945</v>
+      </c>
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="12">
+        <v>792916</v>
+      </c>
+      <c r="G18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>928878</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="12">
+        <v>808147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>871988</v>
+      </c>
+      <c r="B20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="12">
+        <v>833771</v>
+      </c>
+      <c r="G20" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>982244</v>
+      </c>
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="12">
+        <v>871988</v>
+      </c>
+      <c r="G21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>1038679</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="12">
+        <v>873290</v>
+      </c>
+      <c r="G22" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="13">
+      <c r="H22" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>958268</v>
+      </c>
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="12">
+        <v>888543</v>
+      </c>
+      <c r="G23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>1036964</v>
+      </c>
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="12">
+        <v>891883</v>
+      </c>
+      <c r="G24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H24" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>1043694</v>
+      </c>
+      <c r="B25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="12">
+        <v>895473</v>
+      </c>
+      <c r="G25" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>997908</v>
+      </c>
+      <c r="B26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="12">
+        <v>896290</v>
+      </c>
+      <c r="G26" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>1028207</v>
+      </c>
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D27" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="12">
+        <v>910945</v>
+      </c>
+      <c r="G27" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>977963</v>
+      </c>
+      <c r="B28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="12">
+        <v>924739</v>
+      </c>
+      <c r="G28" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>345856</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D29" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="6">
+      <c r="F29" s="12">
+        <v>928878</v>
+      </c>
+      <c r="G29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>808147</v>
+      </c>
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="12">
+        <v>934216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="6">
         <v>43957</v>
       </c>
-      <c r="J3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>873290</v>
-      </c>
-      <c r="B4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="7">
-        <v>873290</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="I30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>1023372</v>
+      </c>
+      <c r="B31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="12">
+        <v>934915</v>
+      </c>
+      <c r="G31" t="s">
+        <v>235</v>
+      </c>
+      <c r="H31" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>684403</v>
+      </c>
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="12">
+        <v>958268</v>
+      </c>
+      <c r="G32" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>986455</v>
+      </c>
+      <c r="B33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="6">
         <v>43957</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="12">
+        <v>964444</v>
+      </c>
+      <c r="G33" t="s">
+        <v>239</v>
+      </c>
+      <c r="H33" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>1047765</v>
+      </c>
+      <c r="B34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D34" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="12">
+        <v>977589</v>
+      </c>
+      <c r="G34" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>1014825</v>
+      </c>
+      <c r="B35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="12">
+        <v>977963</v>
+      </c>
+      <c r="G35" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>977589</v>
+      </c>
+      <c r="B36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" s="12">
+        <v>982244</v>
+      </c>
+      <c r="G36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>1012960</v>
+      </c>
+      <c r="B37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="12">
+        <v>986455</v>
+      </c>
+      <c r="G37" t="s">
+        <v>213</v>
+      </c>
+      <c r="H37" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>1039827</v>
+      </c>
+      <c r="B38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D38" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="12">
+        <v>994114</v>
+      </c>
+      <c r="G38" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>792916</v>
+      </c>
+      <c r="B39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" s="12">
+        <v>997376</v>
+      </c>
+      <c r="G39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H39" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>1035199</v>
+      </c>
+      <c r="B40" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D40" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="12">
+        <v>997908</v>
+      </c>
+      <c r="G40" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
+        <v>895473</v>
+      </c>
+      <c r="B41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1012960</v>
+      </c>
+      <c r="G41" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
+        <v>833771</v>
+      </c>
+      <c r="B42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D42" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1014825</v>
+      </c>
+      <c r="G42" t="s">
+        <v>217</v>
+      </c>
+      <c r="H42" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
+        <v>523330</v>
+      </c>
+      <c r="B43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D43" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1016534</v>
+      </c>
+      <c r="G43" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="13">
-        <v>490011</v>
-      </c>
-      <c r="H4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H43" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
+        <v>934915</v>
+      </c>
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D44" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" s="12">
+        <v>1022282</v>
+      </c>
+      <c r="G44" t="s">
+        <v>245</v>
+      </c>
+      <c r="H44" s="6">
         <v>43957</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>574404</v>
+      </c>
+      <c r="B45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" s="12">
+        <v>1023372</v>
+      </c>
+      <c r="G45" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <v>964444</v>
+      </c>
+      <c r="B46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D46" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" s="12">
+        <v>1024952</v>
+      </c>
+      <c r="G46" t="s">
+        <v>167</v>
+      </c>
+      <c r="H46" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
+        <v>547169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D47" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1028207</v>
+      </c>
+      <c r="G47" t="s">
+        <v>201</v>
+      </c>
+      <c r="H47" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
+        <v>1065569</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D48" t="s">
+        <v>244</v>
+      </c>
+      <c r="F48" s="12">
+        <v>1035199</v>
+      </c>
+      <c r="G48" t="s">
+        <v>227</v>
+      </c>
+      <c r="H48" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
+        <v>1022282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1036964</v>
+      </c>
+      <c r="G49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H49" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
+        <v>924739</v>
+      </c>
+      <c r="B50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D50" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50" s="12">
+        <v>1038679</v>
+      </c>
+      <c r="G50" t="s">
+        <v>191</v>
+      </c>
+      <c r="H50" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
+        <v>891883</v>
+      </c>
+      <c r="B51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D51" t="s">
+        <v>250</v>
+      </c>
+      <c r="F51" s="12">
+        <v>1039827</v>
+      </c>
+      <c r="G51" t="s">
+        <v>223</v>
+      </c>
+      <c r="H51" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
+        <v>1068669</v>
+      </c>
+      <c r="B52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D52" t="s">
+        <v>252</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1039936</v>
+      </c>
+      <c r="G52" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="12">
+        <v>896290</v>
+      </c>
+      <c r="B53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D53" t="s">
+        <v>254</v>
+      </c>
+      <c r="F53" s="12">
+        <v>1043694</v>
+      </c>
+      <c r="G53" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
+        <v>517817</v>
+      </c>
+      <c r="B54" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D54" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" s="12">
+        <v>1047765</v>
+      </c>
+      <c r="G54" t="s">
+        <v>215</v>
+      </c>
+      <c r="H54" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
+        <v>775232</v>
+      </c>
+      <c r="B55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D55" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" s="12">
+        <v>1063699</v>
+      </c>
+      <c r="G55" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>1016534</v>
-      </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1016534</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="H55" s="6">
         <v>43958</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="12">
+        <v>934216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="6">
+        <v>43957</v>
+      </c>
+      <c r="D56" t="s">
+        <v>260</v>
+      </c>
+      <c r="F56" s="12">
+        <v>1065569</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H56" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
+        <v>997376</v>
+      </c>
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D57" t="s">
+        <v>262</v>
+      </c>
+      <c r="F57" s="12">
+        <v>1068669</v>
+      </c>
+      <c r="G57" t="s">
+        <v>251</v>
+      </c>
+      <c r="H57" s="6">
+        <v>43957</v>
+      </c>
+      <c r="I57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="12">
+        <v>754151</v>
+      </c>
+      <c r="B58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D58" t="s">
+        <v>264</v>
+      </c>
+      <c r="F58" s="12">
+        <v>1070102</v>
+      </c>
+      <c r="G58" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="13">
-        <v>517817</v>
-      </c>
-      <c r="H5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I5" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>1070102</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="H58" s="6">
+        <v>43958</v>
+      </c>
+      <c r="I58" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="7">
-        <v>1070102</v>
-      </c>
-      <c r="D6" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="13">
-        <v>523330</v>
-      </c>
-      <c r="H6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I6" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>759215</v>
-      </c>
-      <c r="B7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="7">
-        <v>759215</v>
-      </c>
-      <c r="D7" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="13">
-        <v>547169</v>
-      </c>
-      <c r="H7" t="s">
-        <v>242</v>
-      </c>
-      <c r="I7" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>576373</v>
-      </c>
-      <c r="B8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="7">
-        <v>576373</v>
-      </c>
-      <c r="D8" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" s="13">
-        <v>574404</v>
-      </c>
-      <c r="H8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I8" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>994114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="7">
-        <v>994114</v>
-      </c>
-      <c r="D9" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" s="13">
-        <v>576373</v>
-      </c>
-      <c r="H9" t="s">
-        <v>164</v>
-      </c>
-      <c r="I9" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>1024952</v>
-      </c>
-      <c r="B10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1024952</v>
-      </c>
-      <c r="D10" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="13">
-        <v>684403</v>
-      </c>
-      <c r="H10" t="s">
-        <v>212</v>
-      </c>
-      <c r="I10" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>888543</v>
-      </c>
-      <c r="B11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="7">
-        <v>888543</v>
-      </c>
-      <c r="D11" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="13">
-        <v>694264</v>
-      </c>
-      <c r="H11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>737921</v>
-      </c>
-      <c r="B12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="7">
-        <v>737921</v>
-      </c>
-      <c r="D12" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="13">
-        <v>737921</v>
-      </c>
-      <c r="H12" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>1039936</v>
-      </c>
-      <c r="B13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1039936</v>
-      </c>
-      <c r="D13" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="13">
-        <v>754151</v>
-      </c>
-      <c r="H13" t="s">
-        <v>264</v>
-      </c>
-      <c r="I13" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>790131</v>
-      </c>
-      <c r="B14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="7">
-        <v>790131</v>
-      </c>
-      <c r="D14" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="13">
-        <v>759215</v>
-      </c>
-      <c r="H14" t="s">
-        <v>162</v>
-      </c>
-      <c r="I14" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>778750</v>
-      </c>
-      <c r="B15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="7">
-        <v>778750</v>
-      </c>
-      <c r="D15" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15" s="13">
-        <v>775232</v>
-      </c>
-      <c r="H15" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>490011</v>
-      </c>
-      <c r="B16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="7">
-        <v>490011</v>
-      </c>
-      <c r="D16" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E16" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="13">
-        <v>778750</v>
-      </c>
-      <c r="H16" t="s">
-        <v>178</v>
-      </c>
-      <c r="I16" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>1063699</v>
-      </c>
-      <c r="B17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" s="13">
-        <v>790131</v>
-      </c>
-      <c r="H17" t="s">
-        <v>176</v>
-      </c>
-      <c r="I17" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>910945</v>
-      </c>
-      <c r="B18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="7">
-        <v>910945</v>
-      </c>
-      <c r="D18" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" s="13">
-        <v>792916</v>
-      </c>
-      <c r="H18" t="s">
-        <v>226</v>
-      </c>
-      <c r="I18" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>928878</v>
-      </c>
-      <c r="B19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="7">
-        <v>928878</v>
-      </c>
-      <c r="D19" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="13">
-        <v>808147</v>
-      </c>
-      <c r="H19" t="s">
-        <v>208</v>
-      </c>
-      <c r="I19" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>871988</v>
-      </c>
-      <c r="B20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="7">
-        <v>871988</v>
-      </c>
-      <c r="D20" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E20" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="13">
-        <v>833771</v>
-      </c>
-      <c r="H20" t="s">
-        <v>232</v>
-      </c>
-      <c r="I20" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
-        <v>982244</v>
-      </c>
-      <c r="B21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="7">
-        <v>982244</v>
-      </c>
-      <c r="D21" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E21" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" s="13">
-        <v>871988</v>
-      </c>
-      <c r="H21" t="s">
-        <v>188</v>
-      </c>
-      <c r="I21" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
-        <v>1038679</v>
-      </c>
-      <c r="B22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1038679</v>
-      </c>
-      <c r="D22" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G22" s="13">
-        <v>873290</v>
-      </c>
-      <c r="H22" t="s">
-        <v>156</v>
-      </c>
-      <c r="I22" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
-        <v>958268</v>
-      </c>
-      <c r="B23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="7">
-        <v>958268</v>
-      </c>
-      <c r="D23" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E23" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" s="13">
-        <v>888543</v>
-      </c>
-      <c r="H23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I23" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
-        <v>1036964</v>
-      </c>
-      <c r="B24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1036964</v>
-      </c>
-      <c r="D24" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E24" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" s="13">
-        <v>891883</v>
-      </c>
-      <c r="H24" t="s">
-        <v>250</v>
-      </c>
-      <c r="I24" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
-        <v>1043694</v>
-      </c>
-      <c r="B25" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1043694</v>
-      </c>
-      <c r="D25" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E25" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" s="13">
-        <v>895473</v>
-      </c>
-      <c r="H25" t="s">
-        <v>230</v>
-      </c>
-      <c r="I25" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>997908</v>
-      </c>
-      <c r="B26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" s="7">
-        <v>997908</v>
-      </c>
-      <c r="D26" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E26" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" s="13">
-        <v>896290</v>
-      </c>
-      <c r="H26" t="s">
-        <v>254</v>
-      </c>
-      <c r="I26" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
-        <v>1028207</v>
-      </c>
-      <c r="B27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1028207</v>
-      </c>
-      <c r="D27" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E27" t="s">
-        <v>203</v>
-      </c>
-      <c r="G27" s="13">
-        <v>910945</v>
-      </c>
-      <c r="H27" t="s">
-        <v>184</v>
-      </c>
-      <c r="I27" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
-        <v>977963</v>
-      </c>
-      <c r="B28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="7">
-        <v>977963</v>
-      </c>
-      <c r="D28" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E28" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" s="13">
-        <v>924739</v>
-      </c>
-      <c r="H28" t="s">
-        <v>248</v>
-      </c>
-      <c r="I28" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J28" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
-        <v>345856</v>
-      </c>
-      <c r="B29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" s="7">
-        <v>345856</v>
-      </c>
-      <c r="D29" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E29" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" s="13">
-        <v>928878</v>
-      </c>
-      <c r="H29" t="s">
-        <v>186</v>
-      </c>
-      <c r="I29" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
-        <v>808147</v>
-      </c>
-      <c r="B30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" s="7">
-        <v>808147</v>
-      </c>
-      <c r="D30" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E30" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" s="13">
-        <v>934216</v>
-      </c>
-      <c r="H30" t="s">
-        <v>260</v>
-      </c>
-      <c r="I30" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J30" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
-        <v>1023372</v>
-      </c>
-      <c r="B31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1023372</v>
-      </c>
-      <c r="D31" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E31" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" s="13">
-        <v>934915</v>
-      </c>
-      <c r="H31" t="s">
-        <v>236</v>
-      </c>
-      <c r="I31" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
-        <v>684403</v>
-      </c>
-      <c r="B32" t="s">
-        <v>212</v>
-      </c>
-      <c r="C32" s="7">
-        <v>684403</v>
-      </c>
-      <c r="D32" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E32" t="s">
-        <v>213</v>
-      </c>
-      <c r="G32" s="13">
-        <v>958268</v>
-      </c>
-      <c r="H32" t="s">
-        <v>194</v>
-      </c>
-      <c r="I32" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
-        <v>986455</v>
-      </c>
-      <c r="B33" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" s="7">
-        <v>986455</v>
-      </c>
-      <c r="D33" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E33" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="13">
-        <v>964444</v>
-      </c>
-      <c r="H33" t="s">
-        <v>240</v>
-      </c>
-      <c r="I33" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J33" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
-        <v>1047765</v>
-      </c>
-      <c r="B34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1047765</v>
-      </c>
-      <c r="D34" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E34" t="s">
-        <v>217</v>
-      </c>
-      <c r="G34" s="13">
-        <v>977589</v>
-      </c>
-      <c r="H34" t="s">
-        <v>220</v>
-      </c>
-      <c r="I34" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
-        <v>1014825</v>
-      </c>
-      <c r="B35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1014825</v>
-      </c>
-      <c r="D35" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E35" t="s">
-        <v>219</v>
-      </c>
-      <c r="G35" s="13">
-        <v>977963</v>
-      </c>
-      <c r="H35" t="s">
-        <v>204</v>
-      </c>
-      <c r="I35" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
-        <v>977589</v>
-      </c>
-      <c r="B36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="7">
-        <v>977589</v>
-      </c>
-      <c r="D36" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G36" s="13">
-        <v>982244</v>
-      </c>
-      <c r="H36" t="s">
-        <v>190</v>
-      </c>
-      <c r="I36" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
-        <v>1012960</v>
-      </c>
-      <c r="B37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1012960</v>
-      </c>
-      <c r="D37" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E37" t="s">
-        <v>223</v>
-      </c>
-      <c r="G37" s="13">
-        <v>986455</v>
-      </c>
-      <c r="H37" t="s">
-        <v>214</v>
-      </c>
-      <c r="I37" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J37" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
-        <v>1039827</v>
-      </c>
-      <c r="B38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1039827</v>
-      </c>
-      <c r="D38" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E38" t="s">
-        <v>225</v>
-      </c>
-      <c r="G38" s="13">
-        <v>994114</v>
-      </c>
-      <c r="H38" t="s">
-        <v>166</v>
-      </c>
-      <c r="I38" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
-        <v>792916</v>
-      </c>
-      <c r="B39" t="s">
-        <v>226</v>
-      </c>
-      <c r="C39" s="7">
-        <v>792916</v>
-      </c>
-      <c r="D39" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E39" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="13">
-        <v>997376</v>
-      </c>
-      <c r="H39" t="s">
-        <v>262</v>
-      </c>
-      <c r="I39" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J39" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
-        <v>1035199</v>
-      </c>
-      <c r="B40" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1035199</v>
-      </c>
-      <c r="D40" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E40" t="s">
-        <v>229</v>
-      </c>
-      <c r="G40" s="13">
-        <v>997908</v>
-      </c>
-      <c r="H40" t="s">
-        <v>200</v>
-      </c>
-      <c r="I40" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
-        <v>895473</v>
-      </c>
-      <c r="B41" t="s">
-        <v>230</v>
-      </c>
-      <c r="C41" s="7">
-        <v>895473</v>
-      </c>
-      <c r="D41" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G41" s="13">
-        <v>1012960</v>
-      </c>
-      <c r="H41" t="s">
-        <v>222</v>
-      </c>
-      <c r="I41" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J41" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
-        <v>833771</v>
-      </c>
-      <c r="B42" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" s="7">
-        <v>833771</v>
-      </c>
-      <c r="D42" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E42" t="s">
-        <v>233</v>
-      </c>
-      <c r="G42" s="13">
-        <v>1014825</v>
-      </c>
-      <c r="H42" t="s">
-        <v>218</v>
-      </c>
-      <c r="I42" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
-        <v>523330</v>
-      </c>
-      <c r="B43" t="s">
-        <v>234</v>
-      </c>
-      <c r="C43" s="7">
-        <v>523330</v>
-      </c>
-      <c r="D43" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E43" t="s">
-        <v>235</v>
-      </c>
-      <c r="G43" s="13">
-        <v>1016534</v>
-      </c>
-      <c r="H43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I43" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
-        <v>934915</v>
-      </c>
-      <c r="B44" t="s">
-        <v>236</v>
-      </c>
-      <c r="C44" s="7">
-        <v>934915</v>
-      </c>
-      <c r="D44" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E44" t="s">
-        <v>237</v>
-      </c>
-      <c r="G44" s="13">
-        <v>1022282</v>
-      </c>
-      <c r="H44" t="s">
-        <v>246</v>
-      </c>
-      <c r="I44" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J44" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
-        <v>574404</v>
-      </c>
-      <c r="B45" t="s">
-        <v>238</v>
-      </c>
-      <c r="C45" s="7">
-        <v>574404</v>
-      </c>
-      <c r="D45" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E45" t="s">
-        <v>239</v>
-      </c>
-      <c r="G45" s="13">
-        <v>1023372</v>
-      </c>
-      <c r="H45" t="s">
-        <v>210</v>
-      </c>
-      <c r="I45" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J45" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
-        <v>964444</v>
-      </c>
-      <c r="B46" t="s">
-        <v>240</v>
-      </c>
-      <c r="C46" s="7">
-        <v>964444</v>
-      </c>
-      <c r="D46" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E46" t="s">
-        <v>241</v>
-      </c>
-      <c r="G46" s="13">
-        <v>1024952</v>
-      </c>
-      <c r="H46" t="s">
-        <v>168</v>
-      </c>
-      <c r="I46" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J46" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
-        <v>547169</v>
-      </c>
-      <c r="B47" t="s">
-        <v>242</v>
-      </c>
-      <c r="C47" s="7">
-        <v>547169</v>
-      </c>
-      <c r="D47" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E47" t="s">
-        <v>243</v>
-      </c>
-      <c r="G47" s="13">
-        <v>1028207</v>
-      </c>
-      <c r="H47" t="s">
-        <v>202</v>
-      </c>
-      <c r="I47" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J47" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
-        <v>1065569</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C48" s="7">
-        <v>1065569</v>
-      </c>
-      <c r="D48" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E48" t="s">
-        <v>245</v>
-      </c>
-      <c r="G48" s="13">
-        <v>1035199</v>
-      </c>
-      <c r="H48" t="s">
-        <v>228</v>
-      </c>
-      <c r="I48" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J48" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
-        <v>1022282</v>
-      </c>
-      <c r="B49" t="s">
-        <v>246</v>
-      </c>
-      <c r="C49" s="7">
-        <v>1022282</v>
-      </c>
-      <c r="D49" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E49" t="s">
-        <v>247</v>
-      </c>
-      <c r="G49" s="13">
-        <v>1036964</v>
-      </c>
-      <c r="H49" t="s">
-        <v>196</v>
-      </c>
-      <c r="I49" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J49" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
-        <v>924739</v>
-      </c>
-      <c r="B50" t="s">
-        <v>248</v>
-      </c>
-      <c r="C50" s="7">
-        <v>924739</v>
-      </c>
-      <c r="D50" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E50" t="s">
-        <v>249</v>
-      </c>
-      <c r="G50" s="13">
-        <v>1038679</v>
-      </c>
-      <c r="H50" t="s">
-        <v>192</v>
-      </c>
-      <c r="I50" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J50" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
-        <v>891883</v>
-      </c>
-      <c r="B51" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" s="7">
-        <v>891883</v>
-      </c>
-      <c r="D51" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E51" t="s">
-        <v>251</v>
-      </c>
-      <c r="G51" s="13">
-        <v>1039827</v>
-      </c>
-      <c r="H51" t="s">
-        <v>224</v>
-      </c>
-      <c r="I51" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J51" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
-        <v>1068669</v>
-      </c>
-      <c r="B52" t="s">
-        <v>252</v>
-      </c>
-      <c r="C52" s="7">
-        <v>1068669</v>
-      </c>
-      <c r="D52" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E52" t="s">
-        <v>253</v>
-      </c>
-      <c r="G52" s="13">
-        <v>1039936</v>
-      </c>
-      <c r="H52" t="s">
-        <v>174</v>
-      </c>
-      <c r="I52" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
-        <v>896290</v>
-      </c>
-      <c r="B53" t="s">
-        <v>254</v>
-      </c>
-      <c r="C53" s="7">
-        <v>896290</v>
-      </c>
-      <c r="D53" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E53" t="s">
-        <v>255</v>
-      </c>
-      <c r="G53" s="13">
-        <v>1043694</v>
-      </c>
-      <c r="H53" t="s">
-        <v>198</v>
-      </c>
-      <c r="I53" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J53" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="13">
-        <v>517817</v>
-      </c>
-      <c r="B54" t="s">
-        <v>256</v>
-      </c>
-      <c r="C54" s="7">
-        <v>517817</v>
-      </c>
-      <c r="D54" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E54" t="s">
-        <v>257</v>
-      </c>
-      <c r="G54" s="13">
-        <v>1047765</v>
-      </c>
-      <c r="H54" t="s">
-        <v>216</v>
-      </c>
-      <c r="I54" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J54" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
-        <v>775232</v>
-      </c>
-      <c r="B55" t="s">
-        <v>258</v>
-      </c>
-      <c r="C55" s="7">
-        <v>775232</v>
-      </c>
-      <c r="D55" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E55" t="s">
-        <v>259</v>
-      </c>
-      <c r="G55" s="13">
-        <v>1063699</v>
-      </c>
-      <c r="H55" t="s">
-        <v>182</v>
-      </c>
-      <c r="I55" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J55" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="13">
-        <v>934216</v>
-      </c>
-      <c r="B56" t="s">
-        <v>260</v>
-      </c>
-      <c r="C56" s="7">
-        <v>934216</v>
-      </c>
-      <c r="D56" s="6">
-        <v>43957</v>
-      </c>
-      <c r="E56" t="s">
-        <v>261</v>
-      </c>
-      <c r="G56" s="13">
-        <v>1065569</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="I56" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
-        <v>997376</v>
-      </c>
-      <c r="B57" t="s">
-        <v>262</v>
-      </c>
-      <c r="C57" s="7">
-        <v>997376</v>
-      </c>
-      <c r="D57" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E57" t="s">
-        <v>263</v>
-      </c>
-      <c r="G57" s="13">
-        <v>1068669</v>
-      </c>
-      <c r="H57" t="s">
-        <v>252</v>
-      </c>
-      <c r="I57" s="6">
-        <v>43957</v>
-      </c>
-      <c r="J57" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
-        <v>754151</v>
-      </c>
-      <c r="B58" t="s">
-        <v>264</v>
-      </c>
-      <c r="C58" s="7">
-        <v>754151</v>
-      </c>
-      <c r="D58" s="6">
-        <v>43958</v>
-      </c>
-      <c r="E58" t="s">
-        <v>265</v>
-      </c>
-      <c r="G58" s="13">
-        <v>1070102</v>
-      </c>
-      <c r="H58" t="s">
-        <v>160</v>
-      </c>
-      <c r="I58" s="6">
-        <v>43958</v>
-      </c>
-      <c r="J58" t="s">
-        <v>161</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:J58">
-    <sortCondition ref="G3:G58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:I58">
+    <sortCondition ref="F3:F58"/>
   </sortState>
-  <conditionalFormatting sqref="A3:E58 G3:J58">
+  <conditionalFormatting sqref="F3:I58 A3:D58">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula xml:space="preserve"> #REF! &lt;= -2</formula>
     </cfRule>
